--- a/Improgress/2. Artifact and Deliverable/Project Monitoring and Control/PM_Contrl&MonitoringProject.xlsx
+++ b/Improgress/2. Artifact and Deliverable/Project Monitoring and Control/PM_Contrl&MonitoringProject.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo Legion Y7000\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo Legion Y7000\Documents\GitHub\Capstone-Project\Improgress\2. Artifact and Deliverable\Project Monitoring and Control\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D40BF13-02E9-4BD1-955F-590A15794561}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5229ECD7-D9F2-4D50-95AF-1B0C7CD3810D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2163,67 +2163,19 @@
     <xf numFmtId="9" fontId="28" fillId="22" borderId="11" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="23" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="61" fillId="23" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="61" fillId="23" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="23" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="42" fillId="23" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="42" fillId="23" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="42" fillId="23" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="42" fillId="23" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="42" fillId="23" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="42" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="42" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="23" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="23" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="42" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="42" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="23" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="61" fillId="23" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="42" fillId="23" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="42" fillId="23" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="42" fillId="23" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2269,6 +2221,54 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="42" fillId="23" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="23" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="23" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="42" fillId="23" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="42" fillId="23" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="42" fillId="23" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="42" fillId="23" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="42" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="42" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="23" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="23" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="42" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="42" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2853,7 +2853,7 @@
   <dimension ref="A1:ET61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="7" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H46" sqref="H46:H50"/>
     </sheetView>
   </sheetViews>
@@ -3021,18 +3021,18 @@
       <c r="B4" s="114" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="157">
+      <c r="C4" s="141">
         <v>43752</v>
       </c>
-      <c r="D4" s="158"/>
-      <c r="E4" s="159"/>
+      <c r="D4" s="142"/>
+      <c r="E4" s="143"/>
       <c r="H4" s="114" t="s">
         <v>13</v>
       </c>
       <c r="I4" s="115">
         <v>5</v>
       </c>
-      <c r="K4" s="155" t="str">
+      <c r="K4" s="139" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
@@ -3041,8 +3041,8 @@
       <c r="N4" s="134"/>
       <c r="O4" s="134"/>
       <c r="P4" s="134"/>
-      <c r="Q4" s="160"/>
-      <c r="R4" s="155" t="str">
+      <c r="Q4" s="144"/>
+      <c r="R4" s="139" t="str">
         <f>"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
@@ -3051,8 +3051,8 @@
       <c r="U4" s="134"/>
       <c r="V4" s="134"/>
       <c r="W4" s="134"/>
-      <c r="X4" s="156"/>
-      <c r="Y4" s="164" t="str">
+      <c r="X4" s="140"/>
+      <c r="Y4" s="148" t="str">
         <f>"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
@@ -3061,8 +3061,8 @@
       <c r="AB4" s="134"/>
       <c r="AC4" s="134"/>
       <c r="AD4" s="134"/>
-      <c r="AE4" s="165"/>
-      <c r="AF4" s="151" t="str">
+      <c r="AE4" s="149"/>
+      <c r="AF4" s="133" t="str">
         <f>"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
@@ -3071,8 +3071,8 @@
       <c r="AI4" s="134"/>
       <c r="AJ4" s="134"/>
       <c r="AK4" s="134"/>
-      <c r="AL4" s="152"/>
-      <c r="AM4" s="145" t="str">
+      <c r="AL4" s="135"/>
+      <c r="AM4" s="162" t="str">
         <f>"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 9</v>
       </c>
@@ -3081,8 +3081,8 @@
       <c r="AP4" s="134"/>
       <c r="AQ4" s="134"/>
       <c r="AR4" s="134"/>
-      <c r="AS4" s="146"/>
-      <c r="AT4" s="141" t="str">
+      <c r="AS4" s="163"/>
+      <c r="AT4" s="158" t="str">
         <f>"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 10</v>
       </c>
@@ -3091,8 +3091,8 @@
       <c r="AW4" s="134"/>
       <c r="AX4" s="134"/>
       <c r="AY4" s="134"/>
-      <c r="AZ4" s="142"/>
-      <c r="BA4" s="147" t="str">
+      <c r="AZ4" s="159"/>
+      <c r="BA4" s="164" t="str">
         <f>"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 11</v>
       </c>
@@ -3101,8 +3101,8 @@
       <c r="BD4" s="134"/>
       <c r="BE4" s="134"/>
       <c r="BF4" s="134"/>
-      <c r="BG4" s="148"/>
-      <c r="BH4" s="133" t="str">
+      <c r="BG4" s="165"/>
+      <c r="BH4" s="152" t="str">
         <f>"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 12</v>
       </c>
@@ -3111,24 +3111,24 @@
       <c r="BK4" s="134"/>
       <c r="BL4" s="134"/>
       <c r="BM4" s="134"/>
-      <c r="BN4" s="135"/>
+      <c r="BN4" s="153"/>
     </row>
     <row r="5" spans="1:150" s="50" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="112"/>
       <c r="B5" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="157" t="s">
+      <c r="C5" s="141" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="158"/>
-      <c r="E5" s="159"/>
+      <c r="D5" s="142"/>
+      <c r="E5" s="143"/>
       <c r="F5" s="110"/>
       <c r="G5" s="110"/>
       <c r="H5" s="110"/>
       <c r="I5" s="110"/>
       <c r="J5" s="49"/>
-      <c r="K5" s="161">
+      <c r="K5" s="145">
         <f>K6</f>
         <v>43780</v>
       </c>
@@ -3137,8 +3137,8 @@
       <c r="N5" s="137"/>
       <c r="O5" s="137"/>
       <c r="P5" s="137"/>
-      <c r="Q5" s="163"/>
-      <c r="R5" s="161">
+      <c r="Q5" s="147"/>
+      <c r="R5" s="145">
         <f>R6</f>
         <v>43787</v>
       </c>
@@ -3147,8 +3147,8 @@
       <c r="U5" s="137"/>
       <c r="V5" s="137"/>
       <c r="W5" s="137"/>
-      <c r="X5" s="162"/>
-      <c r="Y5" s="166">
+      <c r="X5" s="146"/>
+      <c r="Y5" s="150">
         <f>Y6</f>
         <v>43794</v>
       </c>
@@ -3157,8 +3157,8 @@
       <c r="AB5" s="137"/>
       <c r="AC5" s="137"/>
       <c r="AD5" s="137"/>
-      <c r="AE5" s="167"/>
-      <c r="AF5" s="153">
+      <c r="AE5" s="151"/>
+      <c r="AF5" s="136">
         <f>AF6</f>
         <v>43801</v>
       </c>
@@ -3167,8 +3167,8 @@
       <c r="AI5" s="137"/>
       <c r="AJ5" s="137"/>
       <c r="AK5" s="137"/>
-      <c r="AL5" s="154"/>
-      <c r="AM5" s="139">
+      <c r="AL5" s="138"/>
+      <c r="AM5" s="156">
         <f>AM6</f>
         <v>43808</v>
       </c>
@@ -3177,8 +3177,8 @@
       <c r="AP5" s="137"/>
       <c r="AQ5" s="137"/>
       <c r="AR5" s="137"/>
-      <c r="AS5" s="140"/>
-      <c r="AT5" s="143">
+      <c r="AS5" s="157"/>
+      <c r="AT5" s="160">
         <f>AT6</f>
         <v>43815</v>
       </c>
@@ -3187,8 +3187,8 @@
       <c r="AW5" s="137"/>
       <c r="AX5" s="137"/>
       <c r="AY5" s="137"/>
-      <c r="AZ5" s="144"/>
-      <c r="BA5" s="149">
+      <c r="AZ5" s="161"/>
+      <c r="BA5" s="166">
         <f>BA6</f>
         <v>43822</v>
       </c>
@@ -3197,8 +3197,8 @@
       <c r="BD5" s="137"/>
       <c r="BE5" s="137"/>
       <c r="BF5" s="137"/>
-      <c r="BG5" s="150"/>
-      <c r="BH5" s="136">
+      <c r="BG5" s="167"/>
+      <c r="BH5" s="154">
         <f>BH6</f>
         <v>43829</v>
       </c>
@@ -3207,7 +3207,7 @@
       <c r="BK5" s="137"/>
       <c r="BL5" s="137"/>
       <c r="BM5" s="137"/>
-      <c r="BN5" s="138"/>
+      <c r="BN5" s="155"/>
     </row>
     <row r="6" spans="1:150" s="48" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="44"/>
@@ -8064,6 +8064,14 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="18">
+    <mergeCell ref="BH4:BN4"/>
+    <mergeCell ref="BH5:BN5"/>
+    <mergeCell ref="AM5:AS5"/>
+    <mergeCell ref="AT4:AZ4"/>
+    <mergeCell ref="AT5:AZ5"/>
+    <mergeCell ref="AM4:AS4"/>
+    <mergeCell ref="BA4:BG4"/>
+    <mergeCell ref="BA5:BG5"/>
     <mergeCell ref="AF4:AL4"/>
     <mergeCell ref="AF5:AL5"/>
     <mergeCell ref="R4:X4"/>
@@ -8074,14 +8082,6 @@
     <mergeCell ref="K5:Q5"/>
     <mergeCell ref="Y4:AE4"/>
     <mergeCell ref="Y5:AE5"/>
-    <mergeCell ref="BH4:BN4"/>
-    <mergeCell ref="BH5:BN5"/>
-    <mergeCell ref="AM5:AS5"/>
-    <mergeCell ref="AT4:AZ4"/>
-    <mergeCell ref="AT5:AZ5"/>
-    <mergeCell ref="AM4:AS4"/>
-    <mergeCell ref="BA4:BG4"/>
-    <mergeCell ref="BA5:BG5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H54:H58 H8:H52">

--- a/Improgress/2. Artifact and Deliverable/Project Monitoring and Control/PM_Contrl&MonitoringProject.xlsx
+++ b/Improgress/2. Artifact and Deliverable/Project Monitoring and Control/PM_Contrl&MonitoringProject.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo Legion Y7000\Documents\GitHub\Capstone-Project\Improgress\2. Artifact and Deliverable\Project Monitoring and Control\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5229ECD7-D9F2-4D50-95AF-1B0C7CD3810D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C7B71A-9204-440D-A5B0-3FF17DDE87C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -2163,19 +2165,67 @@
     <xf numFmtId="9" fontId="28" fillId="22" borderId="11" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="61" fillId="23" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="23" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="23" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="42" fillId="23" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="42" fillId="23" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="42" fillId="23" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="42" fillId="23" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="42" fillId="23" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="42" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="42" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="23" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="23" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="42" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="42" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="61" fillId="23" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="23" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="61" fillId="23" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="42" fillId="23" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="42" fillId="23" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="42" fillId="23" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2221,54 +2271,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="42" fillId="23" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="23" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="23" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="42" fillId="23" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="42" fillId="23" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="42" fillId="23" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="42" fillId="23" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="42" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="42" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="23" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="23" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="42" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="42" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2318,7 +2320,33 @@
     <cellStyle name="Total" xfId="42" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="43" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="7">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <border>
         <left style="thin">
@@ -2852,9 +2880,9 @@
   </sheetPr>
   <dimension ref="A1:ET61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H46" sqref="H46:H50"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3021,18 +3049,18 @@
       <c r="B4" s="114" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="141">
+      <c r="C4" s="157">
         <v>43752</v>
       </c>
-      <c r="D4" s="142"/>
-      <c r="E4" s="143"/>
+      <c r="D4" s="158"/>
+      <c r="E4" s="159"/>
       <c r="H4" s="114" t="s">
         <v>13</v>
       </c>
       <c r="I4" s="115">
         <v>5</v>
       </c>
-      <c r="K4" s="139" t="str">
+      <c r="K4" s="155" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
@@ -3041,8 +3069,8 @@
       <c r="N4" s="134"/>
       <c r="O4" s="134"/>
       <c r="P4" s="134"/>
-      <c r="Q4" s="144"/>
-      <c r="R4" s="139" t="str">
+      <c r="Q4" s="160"/>
+      <c r="R4" s="155" t="str">
         <f>"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
@@ -3051,8 +3079,8 @@
       <c r="U4" s="134"/>
       <c r="V4" s="134"/>
       <c r="W4" s="134"/>
-      <c r="X4" s="140"/>
-      <c r="Y4" s="148" t="str">
+      <c r="X4" s="156"/>
+      <c r="Y4" s="164" t="str">
         <f>"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
@@ -3061,8 +3089,8 @@
       <c r="AB4" s="134"/>
       <c r="AC4" s="134"/>
       <c r="AD4" s="134"/>
-      <c r="AE4" s="149"/>
-      <c r="AF4" s="133" t="str">
+      <c r="AE4" s="165"/>
+      <c r="AF4" s="151" t="str">
         <f>"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
@@ -3071,8 +3099,8 @@
       <c r="AI4" s="134"/>
       <c r="AJ4" s="134"/>
       <c r="AK4" s="134"/>
-      <c r="AL4" s="135"/>
-      <c r="AM4" s="162" t="str">
+      <c r="AL4" s="152"/>
+      <c r="AM4" s="145" t="str">
         <f>"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 9</v>
       </c>
@@ -3081,8 +3109,8 @@
       <c r="AP4" s="134"/>
       <c r="AQ4" s="134"/>
       <c r="AR4" s="134"/>
-      <c r="AS4" s="163"/>
-      <c r="AT4" s="158" t="str">
+      <c r="AS4" s="146"/>
+      <c r="AT4" s="141" t="str">
         <f>"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 10</v>
       </c>
@@ -3091,8 +3119,8 @@
       <c r="AW4" s="134"/>
       <c r="AX4" s="134"/>
       <c r="AY4" s="134"/>
-      <c r="AZ4" s="159"/>
-      <c r="BA4" s="164" t="str">
+      <c r="AZ4" s="142"/>
+      <c r="BA4" s="147" t="str">
         <f>"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 11</v>
       </c>
@@ -3101,8 +3129,8 @@
       <c r="BD4" s="134"/>
       <c r="BE4" s="134"/>
       <c r="BF4" s="134"/>
-      <c r="BG4" s="165"/>
-      <c r="BH4" s="152" t="str">
+      <c r="BG4" s="148"/>
+      <c r="BH4" s="133" t="str">
         <f>"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 12</v>
       </c>
@@ -3111,24 +3139,24 @@
       <c r="BK4" s="134"/>
       <c r="BL4" s="134"/>
       <c r="BM4" s="134"/>
-      <c r="BN4" s="153"/>
+      <c r="BN4" s="135"/>
     </row>
     <row r="5" spans="1:150" s="50" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="112"/>
       <c r="B5" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="141" t="s">
+      <c r="C5" s="157" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="142"/>
-      <c r="E5" s="143"/>
+      <c r="D5" s="158"/>
+      <c r="E5" s="159"/>
       <c r="F5" s="110"/>
       <c r="G5" s="110"/>
       <c r="H5" s="110"/>
       <c r="I5" s="110"/>
       <c r="J5" s="49"/>
-      <c r="K5" s="145">
+      <c r="K5" s="161">
         <f>K6</f>
         <v>43780</v>
       </c>
@@ -3137,8 +3165,8 @@
       <c r="N5" s="137"/>
       <c r="O5" s="137"/>
       <c r="P5" s="137"/>
-      <c r="Q5" s="147"/>
-      <c r="R5" s="145">
+      <c r="Q5" s="163"/>
+      <c r="R5" s="161">
         <f>R6</f>
         <v>43787</v>
       </c>
@@ -3147,8 +3175,8 @@
       <c r="U5" s="137"/>
       <c r="V5" s="137"/>
       <c r="W5" s="137"/>
-      <c r="X5" s="146"/>
-      <c r="Y5" s="150">
+      <c r="X5" s="162"/>
+      <c r="Y5" s="166">
         <f>Y6</f>
         <v>43794</v>
       </c>
@@ -3157,8 +3185,8 @@
       <c r="AB5" s="137"/>
       <c r="AC5" s="137"/>
       <c r="AD5" s="137"/>
-      <c r="AE5" s="151"/>
-      <c r="AF5" s="136">
+      <c r="AE5" s="167"/>
+      <c r="AF5" s="153">
         <f>AF6</f>
         <v>43801</v>
       </c>
@@ -3167,8 +3195,8 @@
       <c r="AI5" s="137"/>
       <c r="AJ5" s="137"/>
       <c r="AK5" s="137"/>
-      <c r="AL5" s="138"/>
-      <c r="AM5" s="156">
+      <c r="AL5" s="154"/>
+      <c r="AM5" s="139">
         <f>AM6</f>
         <v>43808</v>
       </c>
@@ -3177,8 +3205,8 @@
       <c r="AP5" s="137"/>
       <c r="AQ5" s="137"/>
       <c r="AR5" s="137"/>
-      <c r="AS5" s="157"/>
-      <c r="AT5" s="160">
+      <c r="AS5" s="140"/>
+      <c r="AT5" s="143">
         <f>AT6</f>
         <v>43815</v>
       </c>
@@ -3187,8 +3215,8 @@
       <c r="AW5" s="137"/>
       <c r="AX5" s="137"/>
       <c r="AY5" s="137"/>
-      <c r="AZ5" s="161"/>
-      <c r="BA5" s="166">
+      <c r="AZ5" s="144"/>
+      <c r="BA5" s="149">
         <f>BA6</f>
         <v>43822</v>
       </c>
@@ -3197,8 +3225,8 @@
       <c r="BD5" s="137"/>
       <c r="BE5" s="137"/>
       <c r="BF5" s="137"/>
-      <c r="BG5" s="167"/>
-      <c r="BH5" s="154">
+      <c r="BG5" s="150"/>
+      <c r="BH5" s="136">
         <f>BH6</f>
         <v>43829</v>
       </c>
@@ -3207,7 +3235,7 @@
       <c r="BK5" s="137"/>
       <c r="BL5" s="137"/>
       <c r="BM5" s="137"/>
-      <c r="BN5" s="155"/>
+      <c r="BN5" s="138"/>
     </row>
     <row r="6" spans="1:150" s="48" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="44"/>
@@ -3974,7 +4002,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="99">
-        <f t="shared" ref="I10:I33" si="11">IF(OR(F10=0,E10=0),0,NETWORKDAYS.INTL(E10,F10,11))</f>
+        <f t="shared" ref="I10:I34" si="11">IF(OR(F10=0,E10=0),0,NETWORKDAYS.INTL(E10,F10,11))</f>
         <v>2</v>
       </c>
       <c r="J10" s="89"/>
@@ -6037,14 +6065,20 @@
         <v>43780</v>
       </c>
       <c r="F34" s="129">
-        <f t="shared" ref="F34" si="12">IF(ISBLANK(E34)," - ",IF(G34=0,E34,E34+G34-1))</f>
-        <v>43815</v>
+        <f>IF(ISBLANK(E34)," - ",IF(G34=0,E34,E34+G34-1))</f>
+        <v>43821</v>
       </c>
       <c r="G34" s="130">
+        <v>42</v>
+      </c>
+      <c r="H34" s="17">
+        <f>AVERAGE(H35,H39,H43,H44)</f>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="I34" s="99">
+        <f t="shared" si="11"/>
         <v>36</v>
       </c>
-      <c r="H34" s="17"/>
-      <c r="I34" s="100"/>
       <c r="J34" s="90"/>
       <c r="K34" s="18"/>
       <c r="L34" s="18"/>
@@ -6116,7 +6150,7 @@
         <v>43780</v>
       </c>
       <c r="F35" s="78">
-        <f t="shared" ref="F35:F45" si="13">IF(ISBLANK(E35)," - ",IF(G35=0,E35,E35+G35-1))</f>
+        <f t="shared" ref="F35:F45" si="12">IF(ISBLANK(E35)," - ",IF(G35=0,E35,E35+G35-1))</f>
         <v>43785</v>
       </c>
       <c r="G35" s="33">
@@ -6124,7 +6158,7 @@
       </c>
       <c r="H35" s="34">
         <f>SUM(H36:H38)/3</f>
-        <v>3.3333333333333333E-2</v>
+        <v>1</v>
       </c>
       <c r="I35" s="99">
         <f>IF(OR(F35=0,E35=0),0,NETWORKDAYS.INTL(E35,F35,11))</f>
@@ -6204,17 +6238,17 @@
         <v>43780</v>
       </c>
       <c r="F36" s="78">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>43785</v>
       </c>
       <c r="G36" s="33">
         <v>6</v>
       </c>
       <c r="H36" s="34">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="I36" s="99">
-        <f t="shared" ref="I36:I44" si="14">IF(OR(F36=0,E36=0),0,NETWORKDAYS.INTL(E36,F36,11))</f>
+        <f t="shared" ref="I36:I44" si="13">IF(OR(F36=0,E36=0),0,NETWORKDAYS.INTL(E36,F36,11))</f>
         <v>6</v>
       </c>
       <c r="J36" s="89"/>
@@ -6291,15 +6325,17 @@
         <v>43782</v>
       </c>
       <c r="F37" s="78">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>43785</v>
       </c>
       <c r="G37" s="33">
         <v>4</v>
       </c>
-      <c r="H37" s="34"/>
+      <c r="H37" s="34">
+        <v>1</v>
+      </c>
       <c r="I37" s="99">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="J37" s="89"/>
@@ -6376,15 +6412,17 @@
         <v>43783</v>
       </c>
       <c r="F38" s="78">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>43785</v>
       </c>
       <c r="G38" s="33">
         <v>3</v>
       </c>
-      <c r="H38" s="34"/>
+      <c r="H38" s="34">
+        <v>1</v>
+      </c>
       <c r="I38" s="99">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="J38" s="89"/>
@@ -6458,15 +6496,18 @@
         <v>43787</v>
       </c>
       <c r="F39" s="78">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>43789</v>
       </c>
       <c r="G39" s="33">
         <v>3</v>
       </c>
-      <c r="H39" s="34"/>
+      <c r="H39" s="34">
+        <f>SUM(H40:H42)</f>
+        <v>0.79999999999999993</v>
+      </c>
       <c r="I39" s="99">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="J39" s="89"/>
@@ -6540,15 +6581,17 @@
         <v>43787</v>
       </c>
       <c r="F40" s="78">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>43790</v>
       </c>
       <c r="G40" s="33">
         <v>4</v>
       </c>
-      <c r="H40" s="34"/>
+      <c r="H40" s="34">
+        <v>0.7</v>
+      </c>
       <c r="I40" s="99">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="J40" s="89"/>
@@ -6622,15 +6665,17 @@
         <v>43789</v>
       </c>
       <c r="F41" s="78">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>43791</v>
       </c>
       <c r="G41" s="33">
         <v>3</v>
       </c>
-      <c r="H41" s="34"/>
+      <c r="H41" s="34">
+        <v>0.1</v>
+      </c>
       <c r="I41" s="99">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="J41" s="89"/>
@@ -6704,15 +6749,17 @@
         <v>43790</v>
       </c>
       <c r="F42" s="78">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>43792</v>
       </c>
       <c r="G42" s="33">
         <v>3</v>
       </c>
-      <c r="H42" s="34"/>
+      <c r="H42" s="34">
+        <v>0</v>
+      </c>
       <c r="I42" s="99">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="J42" s="89"/>
@@ -6786,15 +6833,17 @@
         <v>43787</v>
       </c>
       <c r="F43" s="78">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>43792</v>
       </c>
       <c r="G43" s="33">
         <v>6</v>
       </c>
-      <c r="H43" s="34"/>
+      <c r="H43" s="34">
+        <v>0</v>
+      </c>
       <c r="I43" s="99">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="J43" s="89"/>
@@ -6868,15 +6917,17 @@
         <v>43794</v>
       </c>
       <c r="F44" s="78">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>43820</v>
       </c>
       <c r="G44" s="33">
         <v>27</v>
       </c>
-      <c r="H44" s="34"/>
+      <c r="H44" s="34">
+        <v>0</v>
+      </c>
       <c r="I44" s="99">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>24</v>
       </c>
       <c r="J44" s="89"/>
@@ -6950,7 +7001,7 @@
         <v>43822</v>
       </c>
       <c r="F45" s="129">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>43951</v>
       </c>
       <c r="G45" s="130">
@@ -7028,7 +7079,7 @@
       <c r="D46" s="12"/>
       <c r="E46" s="82"/>
       <c r="F46" s="78" t="str">
-        <f t="shared" ref="F46:F50" si="15">IF(ISBLANK(E46)," - ",IF(G46=0,E46,E46+G46-1))</f>
+        <f t="shared" ref="F46:F50" si="14">IF(ISBLANK(E46)," - ",IF(G46=0,E46,E46+G46-1))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G46" s="33"/>
@@ -7104,7 +7155,7 @@
       <c r="D47" s="12"/>
       <c r="E47" s="82"/>
       <c r="F47" s="78" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G47" s="33"/>
@@ -7180,7 +7231,7 @@
       <c r="D48" s="12"/>
       <c r="E48" s="82"/>
       <c r="F48" s="78" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G48" s="33"/>
@@ -7256,7 +7307,7 @@
       <c r="D49" s="12"/>
       <c r="E49" s="82"/>
       <c r="F49" s="78" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G49" s="33"/>
@@ -7332,7 +7383,7 @@
       <c r="D50" s="12"/>
       <c r="E50" s="82"/>
       <c r="F50" s="78" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G50" s="33"/>
@@ -7841,7 +7892,7 @@
       <c r="D57" s="12"/>
       <c r="E57" s="82"/>
       <c r="F57" s="78" t="str">
-        <f t="shared" ref="F57:F58" si="16">IF(ISBLANK(E57)," - ",IF(G57=0,E57,E57+G57-1))</f>
+        <f t="shared" ref="F57:F58" si="15">IF(ISBLANK(E57)," - ",IF(G57=0,E57,E57+G57-1))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G57" s="33"/>
@@ -7849,7 +7900,7 @@
         <v>0</v>
       </c>
       <c r="I57" s="99">
-        <f t="shared" ref="I57:I58" si="17">IF(OR(F57=0,E57=0),0,NETWORKDAYS(E57,F57))</f>
+        <f t="shared" ref="I57:I58" si="16">IF(OR(F57=0,E57=0),0,NETWORKDAYS(E57,F57))</f>
         <v>0</v>
       </c>
       <c r="J57" s="89"/>
@@ -7922,7 +7973,7 @@
       <c r="D58" s="12"/>
       <c r="E58" s="82"/>
       <c r="F58" s="78" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G58" s="33"/>
@@ -7930,7 +7981,7 @@
         <v>0</v>
       </c>
       <c r="I58" s="99">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J58" s="89"/>
@@ -8064,14 +8115,6 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="18">
-    <mergeCell ref="BH4:BN4"/>
-    <mergeCell ref="BH5:BN5"/>
-    <mergeCell ref="AM5:AS5"/>
-    <mergeCell ref="AT4:AZ4"/>
-    <mergeCell ref="AT5:AZ5"/>
-    <mergeCell ref="AM4:AS4"/>
-    <mergeCell ref="BA4:BG4"/>
-    <mergeCell ref="BA5:BG5"/>
     <mergeCell ref="AF4:AL4"/>
     <mergeCell ref="AF5:AL5"/>
     <mergeCell ref="R4:X4"/>
@@ -8082,6 +8125,14 @@
     <mergeCell ref="K5:Q5"/>
     <mergeCell ref="Y4:AE4"/>
     <mergeCell ref="Y5:AE5"/>
+    <mergeCell ref="BH4:BN4"/>
+    <mergeCell ref="BH5:BN5"/>
+    <mergeCell ref="AM5:AS5"/>
+    <mergeCell ref="AT4:AZ4"/>
+    <mergeCell ref="AT5:AZ5"/>
+    <mergeCell ref="AM4:AS4"/>
+    <mergeCell ref="BA4:BG4"/>
+    <mergeCell ref="BA5:BG5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H54:H58 H8:H52">
@@ -8099,7 +8150,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:BM7">
-    <cfRule type="expression" dxfId="3" priority="46">
+    <cfRule type="expression" dxfId="6" priority="46">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8126,7 +8177,7 @@
   <pageSetup scale="61" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="A51:B52 B53:B54 E57:E58 E51:I55 H34:I34 I46:I49 H45" unlockedFormula="1"/>
+    <ignoredError sqref="A51:B52 B53:B54 E57:E58 E51:I55 I46:I49 H45" unlockedFormula="1"/>
     <ignoredError sqref="A45 A34 A21 A18 A24:A25 A26 A29 A32 A39" formula="1"/>
     <ignoredError sqref="H9" formulaRange="1"/>
   </ignoredErrors>

--- a/Improgress/2. Artifact and Deliverable/Project Monitoring and Control/PM_Contrl&MonitoringProject.xlsx
+++ b/Improgress/2. Artifact and Deliverable/Project Monitoring and Control/PM_Contrl&MonitoringProject.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo Legion Y7000\Documents\GitHub\Capstone-Project\Improgress\2. Artifact and Deliverable\Project Monitoring and Control\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C7B71A-9204-440D-A5B0-3FF17DDE87C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55EAD62A-257D-490A-A1AE-61CD4DFB442C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="prevWBS" localSheetId="0">GanttChart!$A1048576</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$BN$52</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$BN$74</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">GanttChart!$4:$7</definedName>
     <definedName name="valuevx">42.314159</definedName>
     <definedName name="vertex42_copyright" hidden="1">"© 2006-2018 Vertex42 LLC"</definedName>
@@ -402,7 +402,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="77">
   <si>
     <t>WBS</t>
   </si>
@@ -595,6 +595,45 @@
   <si>
     <t>Risk Management</t>
   </si>
+  <si>
+    <t>Feature "Quản lý thông tin"</t>
+  </si>
+  <si>
+    <t>Feature "Quản lý tài khoản"</t>
+  </si>
+  <si>
+    <t>Feature "Quản lý dự án bất động sản"</t>
+  </si>
+  <si>
+    <t>Feature "Quản lý thống kê, báo cáo"</t>
+  </si>
+  <si>
+    <t>Feature "Quản lý công tác"</t>
+  </si>
+  <si>
+    <t>Feature "Quản lý nghỉ việc"</t>
+  </si>
+  <si>
+    <t>Feature "Chức năng sinh nhật"</t>
+  </si>
+  <si>
+    <t>Module 1</t>
+  </si>
+  <si>
+    <t>Implementation</t>
+  </si>
+  <si>
+    <t>Feature "Đăng nhập "</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Module 2</t>
+  </si>
+  <si>
+    <t>Module 3</t>
+  </si>
 </sst>
 </file>
 
@@ -606,7 +645,7 @@
     <numFmt numFmtId="166" formatCode="d"/>
     <numFmt numFmtId="167" formatCode="d\ mmm\ yyyy"/>
   </numFmts>
-  <fonts count="71" x14ac:knownFonts="1">
+  <fonts count="72" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1093,6 +1132,14 @@
     </font>
     <font>
       <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -1785,7 +1832,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="168">
+  <cellXfs count="177">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
@@ -2165,67 +2212,19 @@
     <xf numFmtId="9" fontId="28" fillId="22" borderId="11" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="23" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="61" fillId="23" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="61" fillId="23" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="23" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="42" fillId="23" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="42" fillId="23" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="42" fillId="23" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="42" fillId="23" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="42" fillId="23" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="42" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="42" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="23" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="23" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="42" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="42" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="23" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="61" fillId="23" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="42" fillId="23" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="42" fillId="23" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="42" fillId="23" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2271,6 +2270,81 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="42" fillId="23" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="23" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="23" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="42" fillId="23" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="42" fillId="23" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="42" fillId="23" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="42" fillId="23" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="42" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="42" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="23" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="23" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="42" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="42" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="7"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="48" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="31" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="31" fillId="22" borderId="0" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="48" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="52" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2320,7 +2394,7 @@
     <cellStyle name="Total" xfId="42" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="43" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="5">
     <dxf>
       <border>
         <left style="thin">
@@ -2332,20 +2406,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <border>
@@ -2471,7 +2531,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="22" fmlaLink="$I$4" horiz="1" max="100" min="1" page="0" val="5"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="22" fmlaLink="$I$4" horiz="1" max="100" min="1" page="0" val="18"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2878,11 +2938,11 @@
   <sheetPr codeName="Sheet8">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:ET61"/>
+  <dimension ref="A1:ET83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I45" sqref="I45"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3049,193 +3109,193 @@
       <c r="B4" s="114" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="157">
+      <c r="C4" s="141">
         <v>43752</v>
       </c>
-      <c r="D4" s="158"/>
-      <c r="E4" s="159"/>
+      <c r="D4" s="142"/>
+      <c r="E4" s="143"/>
       <c r="H4" s="114" t="s">
         <v>13</v>
       </c>
       <c r="I4" s="115">
-        <v>5</v>
-      </c>
-      <c r="K4" s="155" t="str">
+        <v>18</v>
+      </c>
+      <c r="K4" s="139" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 5</v>
+        <v>Week 18</v>
       </c>
       <c r="L4" s="134"/>
       <c r="M4" s="134"/>
       <c r="N4" s="134"/>
       <c r="O4" s="134"/>
       <c r="P4" s="134"/>
-      <c r="Q4" s="160"/>
-      <c r="R4" s="155" t="str">
+      <c r="Q4" s="144"/>
+      <c r="R4" s="139" t="str">
         <f>"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 6</v>
+        <v>Week 19</v>
       </c>
       <c r="S4" s="134"/>
       <c r="T4" s="134"/>
       <c r="U4" s="134"/>
       <c r="V4" s="134"/>
       <c r="W4" s="134"/>
-      <c r="X4" s="156"/>
-      <c r="Y4" s="164" t="str">
+      <c r="X4" s="140"/>
+      <c r="Y4" s="148" t="str">
         <f>"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 7</v>
+        <v>Week 20</v>
       </c>
       <c r="Z4" s="134"/>
       <c r="AA4" s="134"/>
       <c r="AB4" s="134"/>
       <c r="AC4" s="134"/>
       <c r="AD4" s="134"/>
-      <c r="AE4" s="165"/>
-      <c r="AF4" s="151" t="str">
+      <c r="AE4" s="149"/>
+      <c r="AF4" s="133" t="str">
         <f>"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 8</v>
+        <v>Week 21</v>
       </c>
       <c r="AG4" s="134"/>
       <c r="AH4" s="134"/>
       <c r="AI4" s="134"/>
       <c r="AJ4" s="134"/>
       <c r="AK4" s="134"/>
-      <c r="AL4" s="152"/>
-      <c r="AM4" s="145" t="str">
+      <c r="AL4" s="135"/>
+      <c r="AM4" s="162" t="str">
         <f>"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 9</v>
+        <v>Week 22</v>
       </c>
       <c r="AN4" s="134"/>
       <c r="AO4" s="134"/>
       <c r="AP4" s="134"/>
       <c r="AQ4" s="134"/>
       <c r="AR4" s="134"/>
-      <c r="AS4" s="146"/>
-      <c r="AT4" s="141" t="str">
+      <c r="AS4" s="163"/>
+      <c r="AT4" s="158" t="str">
         <f>"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 10</v>
+        <v>Week 23</v>
       </c>
       <c r="AU4" s="134"/>
       <c r="AV4" s="134"/>
       <c r="AW4" s="134"/>
       <c r="AX4" s="134"/>
       <c r="AY4" s="134"/>
-      <c r="AZ4" s="142"/>
-      <c r="BA4" s="147" t="str">
+      <c r="AZ4" s="159"/>
+      <c r="BA4" s="164" t="str">
         <f>"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 11</v>
+        <v>Week 24</v>
       </c>
       <c r="BB4" s="134"/>
       <c r="BC4" s="134"/>
       <c r="BD4" s="134"/>
       <c r="BE4" s="134"/>
       <c r="BF4" s="134"/>
-      <c r="BG4" s="148"/>
-      <c r="BH4" s="133" t="str">
+      <c r="BG4" s="165"/>
+      <c r="BH4" s="152" t="str">
         <f>"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 12</v>
+        <v>Week 25</v>
       </c>
       <c r="BI4" s="134"/>
       <c r="BJ4" s="134"/>
       <c r="BK4" s="134"/>
       <c r="BL4" s="134"/>
       <c r="BM4" s="134"/>
-      <c r="BN4" s="135"/>
+      <c r="BN4" s="153"/>
     </row>
     <row r="5" spans="1:150" s="50" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="112"/>
       <c r="B5" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="157" t="s">
+      <c r="C5" s="141" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="158"/>
-      <c r="E5" s="159"/>
+      <c r="D5" s="142"/>
+      <c r="E5" s="143"/>
       <c r="F5" s="110"/>
       <c r="G5" s="110"/>
       <c r="H5" s="110"/>
       <c r="I5" s="110"/>
       <c r="J5" s="49"/>
-      <c r="K5" s="161">
+      <c r="K5" s="145">
         <f>K6</f>
-        <v>43780</v>
+        <v>43871</v>
       </c>
       <c r="L5" s="137"/>
       <c r="M5" s="137"/>
       <c r="N5" s="137"/>
       <c r="O5" s="137"/>
       <c r="P5" s="137"/>
-      <c r="Q5" s="163"/>
-      <c r="R5" s="161">
+      <c r="Q5" s="147"/>
+      <c r="R5" s="145">
         <f>R6</f>
-        <v>43787</v>
+        <v>43878</v>
       </c>
       <c r="S5" s="137"/>
       <c r="T5" s="137"/>
       <c r="U5" s="137"/>
       <c r="V5" s="137"/>
       <c r="W5" s="137"/>
-      <c r="X5" s="162"/>
-      <c r="Y5" s="166">
+      <c r="X5" s="146"/>
+      <c r="Y5" s="150">
         <f>Y6</f>
-        <v>43794</v>
+        <v>43885</v>
       </c>
       <c r="Z5" s="137"/>
       <c r="AA5" s="137"/>
       <c r="AB5" s="137"/>
       <c r="AC5" s="137"/>
       <c r="AD5" s="137"/>
-      <c r="AE5" s="167"/>
-      <c r="AF5" s="153">
+      <c r="AE5" s="151"/>
+      <c r="AF5" s="136">
         <f>AF6</f>
-        <v>43801</v>
+        <v>43892</v>
       </c>
       <c r="AG5" s="137"/>
       <c r="AH5" s="137"/>
       <c r="AI5" s="137"/>
       <c r="AJ5" s="137"/>
       <c r="AK5" s="137"/>
-      <c r="AL5" s="154"/>
-      <c r="AM5" s="139">
+      <c r="AL5" s="138"/>
+      <c r="AM5" s="156">
         <f>AM6</f>
-        <v>43808</v>
+        <v>43899</v>
       </c>
       <c r="AN5" s="137"/>
       <c r="AO5" s="137"/>
       <c r="AP5" s="137"/>
       <c r="AQ5" s="137"/>
       <c r="AR5" s="137"/>
-      <c r="AS5" s="140"/>
-      <c r="AT5" s="143">
+      <c r="AS5" s="157"/>
+      <c r="AT5" s="160">
         <f>AT6</f>
-        <v>43815</v>
+        <v>43906</v>
       </c>
       <c r="AU5" s="137"/>
       <c r="AV5" s="137"/>
       <c r="AW5" s="137"/>
       <c r="AX5" s="137"/>
       <c r="AY5" s="137"/>
-      <c r="AZ5" s="144"/>
-      <c r="BA5" s="149">
+      <c r="AZ5" s="161"/>
+      <c r="BA5" s="166">
         <f>BA6</f>
-        <v>43822</v>
+        <v>43913</v>
       </c>
       <c r="BB5" s="137"/>
       <c r="BC5" s="137"/>
       <c r="BD5" s="137"/>
       <c r="BE5" s="137"/>
       <c r="BF5" s="137"/>
-      <c r="BG5" s="150"/>
-      <c r="BH5" s="136">
+      <c r="BG5" s="167"/>
+      <c r="BH5" s="154">
         <f>BH6</f>
-        <v>43829</v>
+        <v>43920</v>
       </c>
       <c r="BI5" s="137"/>
       <c r="BJ5" s="137"/>
       <c r="BK5" s="137"/>
       <c r="BL5" s="137"/>
       <c r="BM5" s="137"/>
-      <c r="BN5" s="138"/>
+      <c r="BN5" s="155"/>
     </row>
     <row r="6" spans="1:150" s="48" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="44"/>
@@ -3250,227 +3310,227 @@
       <c r="J6" s="45"/>
       <c r="K6" s="60">
         <f>C4-WEEKDAY(C4,1)+2+7*(I4-1)</f>
-        <v>43780</v>
+        <v>43871</v>
       </c>
       <c r="L6" s="47">
         <f t="shared" ref="L6:AQ6" si="0">K6+1</f>
-        <v>43781</v>
+        <v>43872</v>
       </c>
       <c r="M6" s="47">
         <f t="shared" si="0"/>
-        <v>43782</v>
+        <v>43873</v>
       </c>
       <c r="N6" s="47">
         <f t="shared" si="0"/>
-        <v>43783</v>
+        <v>43874</v>
       </c>
       <c r="O6" s="47">
         <f t="shared" si="0"/>
-        <v>43784</v>
+        <v>43875</v>
       </c>
       <c r="P6" s="47">
         <f t="shared" si="0"/>
-        <v>43785</v>
+        <v>43876</v>
       </c>
       <c r="Q6" s="61">
         <f t="shared" si="0"/>
-        <v>43786</v>
+        <v>43877</v>
       </c>
       <c r="R6" s="60">
         <f t="shared" si="0"/>
-        <v>43787</v>
+        <v>43878</v>
       </c>
       <c r="S6" s="47">
         <f t="shared" si="0"/>
-        <v>43788</v>
+        <v>43879</v>
       </c>
       <c r="T6" s="47">
         <f t="shared" si="0"/>
-        <v>43789</v>
+        <v>43880</v>
       </c>
       <c r="U6" s="47">
         <f t="shared" ref="U6" si="1">T6+1</f>
-        <v>43790</v>
+        <v>43881</v>
       </c>
       <c r="V6" s="47">
         <f t="shared" ref="V6" si="2">U6+1</f>
-        <v>43791</v>
+        <v>43882</v>
       </c>
       <c r="W6" s="47">
         <f t="shared" ref="W6" si="3">V6+1</f>
-        <v>43792</v>
+        <v>43883</v>
       </c>
       <c r="X6" s="62">
         <f t="shared" si="0"/>
-        <v>43793</v>
+        <v>43884</v>
       </c>
       <c r="Y6" s="63">
         <f t="shared" si="0"/>
-        <v>43794</v>
+        <v>43885</v>
       </c>
       <c r="Z6" s="47">
         <f t="shared" si="0"/>
-        <v>43795</v>
+        <v>43886</v>
       </c>
       <c r="AA6" s="47">
         <f t="shared" si="0"/>
-        <v>43796</v>
+        <v>43887</v>
       </c>
       <c r="AB6" s="47">
         <f t="shared" si="0"/>
-        <v>43797</v>
+        <v>43888</v>
       </c>
       <c r="AC6" s="47">
         <f t="shared" si="0"/>
-        <v>43798</v>
+        <v>43889</v>
       </c>
       <c r="AD6" s="47">
         <f t="shared" si="0"/>
-        <v>43799</v>
+        <v>43890</v>
       </c>
       <c r="AE6" s="64">
         <f t="shared" si="0"/>
-        <v>43800</v>
+        <v>43891</v>
       </c>
       <c r="AF6" s="65">
         <f t="shared" si="0"/>
-        <v>43801</v>
+        <v>43892</v>
       </c>
       <c r="AG6" s="47">
         <f t="shared" si="0"/>
-        <v>43802</v>
+        <v>43893</v>
       </c>
       <c r="AH6" s="47">
         <f t="shared" si="0"/>
-        <v>43803</v>
+        <v>43894</v>
       </c>
       <c r="AI6" s="47">
         <f t="shared" si="0"/>
-        <v>43804</v>
+        <v>43895</v>
       </c>
       <c r="AJ6" s="47">
         <f t="shared" si="0"/>
-        <v>43805</v>
+        <v>43896</v>
       </c>
       <c r="AK6" s="47">
         <f t="shared" si="0"/>
-        <v>43806</v>
+        <v>43897</v>
       </c>
       <c r="AL6" s="66">
         <f t="shared" si="0"/>
-        <v>43807</v>
+        <v>43898</v>
       </c>
       <c r="AM6" s="67">
         <f t="shared" si="0"/>
-        <v>43808</v>
+        <v>43899</v>
       </c>
       <c r="AN6" s="47">
         <f t="shared" si="0"/>
-        <v>43809</v>
+        <v>43900</v>
       </c>
       <c r="AO6" s="47">
         <f t="shared" si="0"/>
-        <v>43810</v>
+        <v>43901</v>
       </c>
       <c r="AP6" s="47">
         <f t="shared" si="0"/>
-        <v>43811</v>
+        <v>43902</v>
       </c>
       <c r="AQ6" s="47">
         <f t="shared" si="0"/>
-        <v>43812</v>
+        <v>43903</v>
       </c>
       <c r="AR6" s="47">
         <f t="shared" ref="AR6:BN6" si="4">AQ6+1</f>
-        <v>43813</v>
+        <v>43904</v>
       </c>
       <c r="AS6" s="68">
         <f t="shared" si="4"/>
-        <v>43814</v>
+        <v>43905</v>
       </c>
       <c r="AT6" s="69">
         <f t="shared" si="4"/>
-        <v>43815</v>
+        <v>43906</v>
       </c>
       <c r="AU6" s="47">
         <f t="shared" si="4"/>
-        <v>43816</v>
+        <v>43907</v>
       </c>
       <c r="AV6" s="47">
         <f t="shared" si="4"/>
-        <v>43817</v>
+        <v>43908</v>
       </c>
       <c r="AW6" s="47">
         <f t="shared" si="4"/>
-        <v>43818</v>
+        <v>43909</v>
       </c>
       <c r="AX6" s="47">
         <f t="shared" si="4"/>
-        <v>43819</v>
+        <v>43910</v>
       </c>
       <c r="AY6" s="47">
         <f t="shared" si="4"/>
-        <v>43820</v>
+        <v>43911</v>
       </c>
       <c r="AZ6" s="70">
         <f t="shared" si="4"/>
-        <v>43821</v>
+        <v>43912</v>
       </c>
       <c r="BA6" s="71">
         <f t="shared" si="4"/>
-        <v>43822</v>
+        <v>43913</v>
       </c>
       <c r="BB6" s="47">
         <f t="shared" si="4"/>
-        <v>43823</v>
+        <v>43914</v>
       </c>
       <c r="BC6" s="47">
         <f t="shared" si="4"/>
-        <v>43824</v>
+        <v>43915</v>
       </c>
       <c r="BD6" s="47">
         <f t="shared" si="4"/>
-        <v>43825</v>
+        <v>43916</v>
       </c>
       <c r="BE6" s="47">
         <f t="shared" si="4"/>
-        <v>43826</v>
+        <v>43917</v>
       </c>
       <c r="BF6" s="47">
         <f t="shared" si="4"/>
-        <v>43827</v>
+        <v>43918</v>
       </c>
       <c r="BG6" s="72">
         <f t="shared" si="4"/>
-        <v>43828</v>
+        <v>43919</v>
       </c>
       <c r="BH6" s="73">
         <f t="shared" si="4"/>
-        <v>43829</v>
+        <v>43920</v>
       </c>
       <c r="BI6" s="47">
         <f t="shared" si="4"/>
-        <v>43830</v>
+        <v>43921</v>
       </c>
       <c r="BJ6" s="47">
         <f t="shared" si="4"/>
-        <v>43831</v>
+        <v>43922</v>
       </c>
       <c r="BK6" s="47">
         <f t="shared" si="4"/>
-        <v>43832</v>
+        <v>43923</v>
       </c>
       <c r="BL6" s="47">
         <f t="shared" si="4"/>
-        <v>43833</v>
+        <v>43924</v>
       </c>
       <c r="BM6" s="47">
         <f t="shared" si="4"/>
-        <v>43834</v>
+        <v>43925</v>
       </c>
       <c r="BN6" s="74">
         <f t="shared" si="4"/>
-        <v>43835</v>
+        <v>43926</v>
       </c>
     </row>
     <row r="7" spans="1:150" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6073,7 +6133,7 @@
       </c>
       <c r="H34" s="17">
         <f>AVERAGE(H35,H39,H43,H44)</f>
-        <v>0.44999999999999996</v>
+        <v>0.76666666666666661</v>
       </c>
       <c r="I34" s="99">
         <f t="shared" si="11"/>
@@ -6151,10 +6211,10 @@
       </c>
       <c r="F35" s="78">
         <f t="shared" ref="F35:F45" si="12">IF(ISBLANK(E35)," - ",IF(G35=0,E35,E35+G35-1))</f>
-        <v>43785</v>
+        <v>43793</v>
       </c>
       <c r="G35" s="33">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H35" s="34">
         <f>SUM(H36:H38)/3</f>
@@ -6162,7 +6222,7 @@
       </c>
       <c r="I35" s="99">
         <f>IF(OR(F35=0,E35=0),0,NETWORKDAYS.INTL(E35,F35,11))</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J35" s="89"/>
       <c r="K35" s="13"/>
@@ -6239,17 +6299,17 @@
       </c>
       <c r="F36" s="78">
         <f t="shared" si="12"/>
-        <v>43785</v>
+        <v>43793</v>
       </c>
       <c r="G36" s="33">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H36" s="34">
         <v>1</v>
       </c>
       <c r="I36" s="99">
-        <f t="shared" ref="I36:I44" si="13">IF(OR(F36=0,E36=0),0,NETWORKDAYS.INTL(E36,F36,11))</f>
-        <v>6</v>
+        <f t="shared" ref="I36:I62" si="13">IF(OR(F36=0,E36=0),0,NETWORKDAYS.INTL(E36,F36,11))</f>
+        <v>12</v>
       </c>
       <c r="J36" s="89"/>
       <c r="K36" s="13"/>
@@ -6409,21 +6469,21 @@
       </c>
       <c r="D38" s="12"/>
       <c r="E38" s="82">
-        <v>43783</v>
+        <v>43787</v>
       </c>
       <c r="F38" s="78">
         <f t="shared" si="12"/>
-        <v>43785</v>
+        <v>43790</v>
       </c>
       <c r="G38" s="33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H38" s="34">
         <v>1</v>
       </c>
       <c r="I38" s="99">
         <f t="shared" si="13"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J38" s="89"/>
       <c r="K38" s="13"/>
@@ -6493,22 +6553,22 @@
       </c>
       <c r="D39" s="12"/>
       <c r="E39" s="82">
-        <v>43787</v>
+        <v>43794</v>
       </c>
       <c r="F39" s="78">
         <f t="shared" si="12"/>
-        <v>43789</v>
+        <v>43807</v>
       </c>
       <c r="G39" s="33">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="H39" s="34">
-        <f>SUM(H40:H42)</f>
-        <v>0.79999999999999993</v>
+        <f>AVERAGE(H40:H42)</f>
+        <v>0.56666666666666665</v>
       </c>
       <c r="I39" s="99">
         <f t="shared" si="13"/>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="J39" s="89"/>
       <c r="K39" s="13"/>
@@ -6576,23 +6636,26 @@
       <c r="B40" s="122" t="s">
         <v>55</v>
       </c>
+      <c r="C40" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="D40" s="12"/>
       <c r="E40" s="82">
-        <v>43787</v>
+        <v>43794</v>
       </c>
       <c r="F40" s="78">
         <f t="shared" si="12"/>
-        <v>43790</v>
+        <v>43799</v>
       </c>
       <c r="G40" s="33">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H40" s="34">
         <v>0.7</v>
       </c>
       <c r="I40" s="99">
         <f t="shared" si="13"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J40" s="89"/>
       <c r="K40" s="13"/>
@@ -6660,23 +6723,26 @@
       <c r="B41" s="122" t="s">
         <v>56</v>
       </c>
+      <c r="C41" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="D41" s="12"/>
       <c r="E41" s="82">
-        <v>43789</v>
+        <v>43801</v>
       </c>
       <c r="F41" s="78">
         <f t="shared" si="12"/>
-        <v>43791</v>
+        <v>43806</v>
       </c>
       <c r="G41" s="33">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H41" s="34">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="I41" s="99">
         <f t="shared" si="13"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J41" s="89"/>
       <c r="K41" s="13"/>
@@ -6744,23 +6810,26 @@
       <c r="B42" s="122" t="s">
         <v>57</v>
       </c>
+      <c r="C42" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="D42" s="12"/>
       <c r="E42" s="82">
-        <v>43790</v>
+        <v>43801</v>
       </c>
       <c r="F42" s="78">
         <f t="shared" si="12"/>
-        <v>43792</v>
+        <v>43806</v>
       </c>
       <c r="G42" s="33">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H42" s="34">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="I42" s="99">
         <f t="shared" si="13"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J42" s="89"/>
       <c r="K42" s="13"/>
@@ -6828,23 +6897,26 @@
       <c r="B43" s="128" t="s">
         <v>63</v>
       </c>
+      <c r="C43" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="D43" s="12"/>
       <c r="E43" s="82">
-        <v>43787</v>
+        <v>43802</v>
       </c>
       <c r="F43" s="78">
         <f t="shared" si="12"/>
-        <v>43792</v>
+        <v>43806</v>
       </c>
       <c r="G43" s="33">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H43" s="34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" s="99">
         <f t="shared" si="13"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J43" s="89"/>
       <c r="K43" s="13"/>
@@ -6912,6 +6984,9 @@
       <c r="B44" s="128" t="s">
         <v>51</v>
       </c>
+      <c r="C44" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="D44" s="12"/>
       <c r="E44" s="82">
         <v>43794</v>
@@ -6924,7 +6999,7 @@
         <v>27</v>
       </c>
       <c r="H44" s="34">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I44" s="99">
         <f t="shared" si="13"/>
@@ -7013,7 +7088,6 @@
         <v>88</v>
       </c>
       <c r="J45" s="90"/>
-      <c r="K45" s="18"/>
       <c r="L45" s="18"/>
       <c r="M45" s="18"/>
       <c r="N45" s="18"/>
@@ -7075,18 +7149,24 @@
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.1</v>
       </c>
-      <c r="B46" s="14"/>
+      <c r="B46" s="128" t="s">
+        <v>71</v>
+      </c>
       <c r="D46" s="12"/>
-      <c r="E46" s="82"/>
-      <c r="F46" s="78" t="str">
-        <f t="shared" ref="F46:F50" si="14">IF(ISBLANK(E46)," - ",IF(G46=0,E46,E46+G46-1))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G46" s="33"/>
+      <c r="E46" s="82">
+        <v>43822</v>
+      </c>
+      <c r="F46" s="78">
+        <f t="shared" ref="F46:F62" si="14">IF(ISBLANK(E46)," - ",IF(G46=0,E46,E46+G46-1))</f>
+        <v>43835</v>
+      </c>
+      <c r="G46" s="33">
+        <v>14</v>
+      </c>
       <c r="H46" s="132"/>
       <c r="I46" s="99">
-        <f>IF(OR(F46=0,E46=0),0,NETWORKDAYS(E46,F46))</f>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>12</v>
       </c>
       <c r="J46" s="89"/>
       <c r="K46" s="13"/>
@@ -7147,22 +7227,28 @@
       <c r="BN46" s="13"/>
     </row>
     <row r="47" spans="1:66" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A47" s="86" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.2</v>
-      </c>
-      <c r="B47" s="14"/>
+      <c r="A47" s="124" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>3.1.1</v>
+      </c>
+      <c r="B47" s="169" t="s">
+        <v>72</v>
+      </c>
       <c r="D47" s="12"/>
-      <c r="E47" s="82"/>
-      <c r="F47" s="78" t="str">
+      <c r="E47" s="82">
+        <v>43822</v>
+      </c>
+      <c r="F47" s="78">
         <f t="shared" si="14"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G47" s="33"/>
-      <c r="H47" s="34"/>
+        <v>43828</v>
+      </c>
+      <c r="G47" s="33">
+        <v>7</v>
+      </c>
+      <c r="H47" s="132"/>
       <c r="I47" s="99">
-        <f>IF(OR(F47=0,E47=0),0,NETWORKDAYS(E47,F47))</f>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>6</v>
       </c>
       <c r="J47" s="89"/>
       <c r="K47" s="13"/>
@@ -7224,21 +7310,27 @@
     </row>
     <row r="48" spans="1:66" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A48" s="86" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.3</v>
-      </c>
-      <c r="B48" s="14"/>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
+        <v>3.1.1.1</v>
+      </c>
+      <c r="B48" s="168" t="s">
+        <v>73</v>
+      </c>
       <c r="D48" s="12"/>
-      <c r="E48" s="82"/>
-      <c r="F48" s="78" t="str">
+      <c r="E48" s="82">
+        <v>43822</v>
+      </c>
+      <c r="F48" s="78">
         <f t="shared" si="14"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G48" s="33"/>
-      <c r="H48" s="34"/>
+        <v>43823</v>
+      </c>
+      <c r="G48" s="33">
+        <v>2</v>
+      </c>
+      <c r="H48" s="132"/>
       <c r="I48" s="99">
-        <f>IF(OR(F48=0,E48=0),0,NETWORKDAYS(E48,F48))</f>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>2</v>
       </c>
       <c r="J48" s="89"/>
       <c r="K48" s="13"/>
@@ -7300,21 +7392,27 @@
     </row>
     <row r="49" spans="1:66" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A49" s="86" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.4</v>
-      </c>
-      <c r="B49" s="14"/>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
+        <v>3.1.1.2</v>
+      </c>
+      <c r="B49" s="168" t="s">
+        <v>64</v>
+      </c>
       <c r="D49" s="12"/>
-      <c r="E49" s="82"/>
-      <c r="F49" s="78" t="str">
+      <c r="E49" s="82">
+        <v>43822</v>
+      </c>
+      <c r="F49" s="78">
         <f t="shared" si="14"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G49" s="33"/>
-      <c r="H49" s="34"/>
+        <v>43827</v>
+      </c>
+      <c r="G49" s="33">
+        <v>6</v>
+      </c>
+      <c r="H49" s="132"/>
       <c r="I49" s="99">
-        <f>IF(OR(F49=0,E49=0),0,NETWORKDAYS(E49,F49))</f>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>6</v>
       </c>
       <c r="J49" s="89"/>
       <c r="K49" s="13"/>
@@ -7376,21 +7474,27 @@
     </row>
     <row r="50" spans="1:66" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A50" s="86" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.5</v>
-      </c>
-      <c r="B50" s="14"/>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
+        <v>3.1.1.3</v>
+      </c>
+      <c r="B50" s="168" t="s">
+        <v>65</v>
+      </c>
       <c r="D50" s="12"/>
-      <c r="E50" s="82"/>
-      <c r="F50" s="78" t="str">
+      <c r="E50" s="82">
+        <v>43822</v>
+      </c>
+      <c r="F50" s="78">
         <f t="shared" si="14"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G50" s="33"/>
-      <c r="H50" s="34"/>
+        <v>43827</v>
+      </c>
+      <c r="G50" s="33">
+        <v>6</v>
+      </c>
+      <c r="H50" s="132"/>
       <c r="I50" s="99">
-        <f>IF(OR(F50=0,E50=0),0,NETWORKDAYS(E50,F50))</f>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>6</v>
       </c>
       <c r="J50" s="89"/>
       <c r="K50" s="13"/>
@@ -7450,17 +7554,31 @@
       <c r="BM50" s="13"/>
       <c r="BN50" s="13"/>
     </row>
-    <row r="51" spans="1:66" s="23" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A51" s="10"/>
-      <c r="B51" s="19"/>
-      <c r="C51" s="19"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="81"/>
-      <c r="F51" s="81"/>
-      <c r="G51" s="21"/>
-      <c r="H51" s="22"/>
-      <c r="I51" s="102"/>
-      <c r="J51" s="91"/>
+    <row r="51" spans="1:66" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A51" s="124" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>3.1.2</v>
+      </c>
+      <c r="B51" s="169" t="s">
+        <v>74</v>
+      </c>
+      <c r="D51" s="12"/>
+      <c r="E51" s="82">
+        <v>43829</v>
+      </c>
+      <c r="F51" s="78">
+        <f t="shared" si="14"/>
+        <v>43834</v>
+      </c>
+      <c r="G51" s="33">
+        <v>6</v>
+      </c>
+      <c r="H51" s="34"/>
+      <c r="I51" s="99">
+        <f t="shared" si="13"/>
+        <v>6</v>
+      </c>
+      <c r="J51" s="89"/>
       <c r="K51" s="13"/>
       <c r="L51" s="13"/>
       <c r="M51" s="13"/>
@@ -7518,17 +7636,31 @@
       <c r="BM51" s="13"/>
       <c r="BN51" s="13"/>
     </row>
-    <row r="52" spans="1:66" s="23" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A52" s="10"/>
-      <c r="B52" s="19"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="81"/>
-      <c r="F52" s="81"/>
-      <c r="G52" s="21"/>
-      <c r="H52" s="22"/>
-      <c r="I52" s="102"/>
-      <c r="J52" s="91"/>
+    <row r="52" spans="1:66" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A52" s="86" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>3.2</v>
+      </c>
+      <c r="B52" s="121" t="s">
+        <v>75</v>
+      </c>
+      <c r="D52" s="12"/>
+      <c r="E52" s="82">
+        <v>43836</v>
+      </c>
+      <c r="F52" s="78">
+        <f t="shared" si="14"/>
+        <v>43849</v>
+      </c>
+      <c r="G52" s="33">
+        <v>14</v>
+      </c>
+      <c r="H52" s="34"/>
+      <c r="I52" s="99">
+        <f t="shared" si="13"/>
+        <v>12</v>
+      </c>
+      <c r="J52" s="89"/>
       <c r="K52" s="13"/>
       <c r="L52" s="13"/>
       <c r="M52" s="13"/>
@@ -7586,19 +7718,31 @@
       <c r="BM52" s="13"/>
       <c r="BN52" s="13"/>
     </row>
-    <row r="53" spans="1:66" s="24" customFormat="1" ht="0.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="103" t="s">
-        <v>1</v>
-      </c>
-      <c r="B53" s="37"/>
-      <c r="C53" s="37"/>
-      <c r="D53" s="37"/>
-      <c r="E53" s="37"/>
-      <c r="F53" s="37"/>
-      <c r="G53" s="37"/>
-      <c r="H53" s="37"/>
-      <c r="I53" s="37"/>
-      <c r="J53" s="37"/>
+    <row r="53" spans="1:66" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A53" s="124" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>3.2.1</v>
+      </c>
+      <c r="B53" s="169" t="s">
+        <v>72</v>
+      </c>
+      <c r="D53" s="12"/>
+      <c r="E53" s="82">
+        <v>43836</v>
+      </c>
+      <c r="F53" s="78">
+        <f t="shared" si="14"/>
+        <v>43841</v>
+      </c>
+      <c r="G53" s="33">
+        <v>6</v>
+      </c>
+      <c r="H53" s="34"/>
+      <c r="I53" s="99">
+        <f t="shared" si="13"/>
+        <v>6</v>
+      </c>
+      <c r="J53" s="89"/>
       <c r="K53" s="13"/>
       <c r="L53" s="13"/>
       <c r="M53" s="13"/>
@@ -7656,19 +7800,31 @@
       <c r="BM53" s="13"/>
       <c r="BN53" s="13"/>
     </row>
-    <row r="54" spans="1:66" s="23" customFormat="1" ht="18" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="104" t="s">
-        <v>15</v>
-      </c>
-      <c r="B54" s="105"/>
-      <c r="C54" s="105"/>
-      <c r="D54" s="105"/>
-      <c r="E54" s="106"/>
-      <c r="F54" s="106"/>
-      <c r="G54" s="105"/>
-      <c r="H54" s="105"/>
-      <c r="I54" s="107"/>
-      <c r="J54" s="108"/>
+    <row r="54" spans="1:66" s="11" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A54" s="86" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
+        <v>3.2.1.1</v>
+      </c>
+      <c r="B54" s="168" t="s">
+        <v>66</v>
+      </c>
+      <c r="D54" s="12"/>
+      <c r="E54" s="82">
+        <v>43836</v>
+      </c>
+      <c r="F54" s="78">
+        <f t="shared" si="14"/>
+        <v>43838</v>
+      </c>
+      <c r="G54" s="33">
+        <v>3</v>
+      </c>
+      <c r="H54" s="34"/>
+      <c r="I54" s="99">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="J54" s="89"/>
       <c r="K54" s="13"/>
       <c r="L54" s="13"/>
       <c r="M54" s="13"/>
@@ -7726,22 +7882,31 @@
       <c r="BM54" s="13"/>
       <c r="BN54" s="13"/>
     </row>
-    <row r="55" spans="1:66" s="23" customFormat="1" ht="17.399999999999999" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="87" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>1</v>
-      </c>
-      <c r="B55" s="98" t="s">
-        <v>2</v>
-      </c>
-      <c r="C55" s="9"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="79"/>
-      <c r="F55" s="80"/>
-      <c r="G55" s="16"/>
-      <c r="H55" s="17"/>
-      <c r="I55" s="100"/>
-      <c r="J55" s="90"/>
+    <row r="55" spans="1:66" s="11" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A55" s="86" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
+        <v>3.2.1.2</v>
+      </c>
+      <c r="B55" s="168" t="s">
+        <v>67</v>
+      </c>
+      <c r="D55" s="12"/>
+      <c r="E55" s="82">
+        <v>43839</v>
+      </c>
+      <c r="F55" s="78">
+        <f t="shared" si="14"/>
+        <v>43841</v>
+      </c>
+      <c r="G55" s="33">
+        <v>3</v>
+      </c>
+      <c r="H55" s="34"/>
+      <c r="I55" s="99">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="J55" s="89"/>
       <c r="K55" s="13"/>
       <c r="L55" s="13"/>
       <c r="M55" s="13"/>
@@ -7799,30 +7964,32 @@
       <c r="BM55" s="13"/>
       <c r="BN55" s="13"/>
     </row>
-    <row r="56" spans="1:66" s="23" customFormat="1" ht="17.399999999999999" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="86" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>1.1</v>
-      </c>
-      <c r="B56" s="14" t="s">
-        <v>3</v>
+    <row r="56" spans="1:66" s="23" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A56" s="124" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>3.2.2</v>
+      </c>
+      <c r="B56" s="169" t="s">
+        <v>74</v>
       </c>
       <c r="C56" s="11"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="82"/>
-      <c r="F56" s="78" t="str">
-        <f>IF(ISBLANK(E56)," - ",IF(G56=0,E56,E56+G56-1))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G56" s="33"/>
-      <c r="H56" s="34">
-        <v>0</v>
-      </c>
-      <c r="I56" s="99">
-        <f>IF(OR(F56=0,E56=0),0,NETWORKDAYS(E56,F56))</f>
-        <v>0</v>
-      </c>
-      <c r="J56" s="89"/>
+      <c r="D56" s="170"/>
+      <c r="E56" s="171">
+        <v>43843</v>
+      </c>
+      <c r="F56" s="172">
+        <f t="shared" si="14"/>
+        <v>43848</v>
+      </c>
+      <c r="G56" s="173">
+        <v>6</v>
+      </c>
+      <c r="H56" s="174"/>
+      <c r="I56" s="175">
+        <f t="shared" si="13"/>
+        <v>6</v>
+      </c>
+      <c r="J56" s="176"/>
       <c r="K56" s="13"/>
       <c r="L56" s="13"/>
       <c r="M56" s="13"/>
@@ -7880,30 +8047,32 @@
       <c r="BM56" s="13"/>
       <c r="BN56" s="13"/>
     </row>
-    <row r="57" spans="1:66" s="23" customFormat="1" ht="17.399999999999999" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:66" s="23" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A57" s="86" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>1.1.1</v>
-      </c>
-      <c r="B57" s="14" t="s">
-        <v>4</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>3.3</v>
+      </c>
+      <c r="B57" s="121" t="s">
+        <v>76</v>
       </c>
       <c r="C57" s="11"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="82"/>
-      <c r="F57" s="78" t="str">
-        <f t="shared" ref="F57:F58" si="15">IF(ISBLANK(E57)," - ",IF(G57=0,E57,E57+G57-1))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G57" s="33"/>
-      <c r="H57" s="34">
-        <v>0</v>
-      </c>
-      <c r="I57" s="99">
-        <f t="shared" ref="I57:I58" si="16">IF(OR(F57=0,E57=0),0,NETWORKDAYS(E57,F57))</f>
-        <v>0</v>
-      </c>
-      <c r="J57" s="89"/>
+      <c r="D57" s="170"/>
+      <c r="E57" s="171">
+        <v>43871</v>
+      </c>
+      <c r="F57" s="172">
+        <f t="shared" si="14"/>
+        <v>43884</v>
+      </c>
+      <c r="G57" s="173">
+        <v>14</v>
+      </c>
+      <c r="H57" s="174"/>
+      <c r="I57" s="175">
+        <f t="shared" si="13"/>
+        <v>12</v>
+      </c>
+      <c r="J57" s="176"/>
       <c r="K57" s="13"/>
       <c r="L57" s="13"/>
       <c r="M57" s="13"/>
@@ -7961,30 +8130,32 @@
       <c r="BM57" s="13"/>
       <c r="BN57" s="13"/>
     </row>
-    <row r="58" spans="1:66" s="23" customFormat="1" ht="17.399999999999999" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="86" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
-        <v>1.1.1.1</v>
-      </c>
-      <c r="B58" s="14" t="s">
-        <v>5</v>
+    <row r="58" spans="1:66" s="23" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A58" s="124" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>3.3.1</v>
+      </c>
+      <c r="B58" s="169" t="s">
+        <v>72</v>
       </c>
       <c r="C58" s="11"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="82"/>
-      <c r="F58" s="78" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G58" s="33"/>
-      <c r="H58" s="34">
-        <v>0</v>
-      </c>
-      <c r="I58" s="99">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="J58" s="89"/>
+      <c r="D58" s="170"/>
+      <c r="E58" s="171">
+        <v>43871</v>
+      </c>
+      <c r="F58" s="172">
+        <f t="shared" si="14"/>
+        <v>43876</v>
+      </c>
+      <c r="G58" s="173">
+        <v>6</v>
+      </c>
+      <c r="H58" s="174"/>
+      <c r="I58" s="175">
+        <f t="shared" si="13"/>
+        <v>6</v>
+      </c>
+      <c r="J58" s="176"/>
       <c r="K58" s="13"/>
       <c r="L58" s="13"/>
       <c r="M58" s="13"/>
@@ -8042,79 +8213,1691 @@
       <c r="BM58" s="13"/>
       <c r="BN58" s="13"/>
     </row>
-    <row r="59" spans="1:66" s="28" customFormat="1" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="25"/>
-      <c r="B59" s="26"/>
-      <c r="C59" s="26"/>
-      <c r="D59" s="27"/>
-      <c r="E59" s="26"/>
-      <c r="F59" s="26"/>
-      <c r="G59" s="26"/>
-      <c r="H59" s="26"/>
-      <c r="I59" s="26"/>
-      <c r="J59" s="26"/>
-      <c r="K59" s="26"/>
-      <c r="L59" s="26"/>
-      <c r="M59" s="26"/>
-      <c r="N59" s="26"/>
-      <c r="O59" s="26"/>
-      <c r="P59" s="26"/>
-      <c r="Q59" s="26"/>
-      <c r="R59" s="26"/>
-      <c r="S59" s="26"/>
-      <c r="T59" s="26"/>
-      <c r="U59" s="26"/>
-      <c r="V59" s="26"/>
-      <c r="W59" s="26"/>
-      <c r="X59" s="26"/>
-      <c r="Y59" s="26"/>
-      <c r="Z59" s="26"/>
-      <c r="AA59" s="26"/>
-      <c r="AB59" s="26"/>
-      <c r="AC59" s="26"/>
-      <c r="AD59" s="26"/>
-      <c r="AE59" s="26"/>
-      <c r="AF59" s="26"/>
-      <c r="AG59" s="26"/>
-      <c r="AH59" s="26"/>
-      <c r="AI59" s="26"/>
-      <c r="AJ59" s="26"/>
-      <c r="AK59" s="26"/>
-      <c r="AL59" s="26"/>
-      <c r="AM59" s="26"/>
-      <c r="AN59" s="26"/>
-      <c r="AO59" s="26"/>
-      <c r="AP59" s="26"/>
-      <c r="AQ59" s="26"/>
-      <c r="AR59" s="26"/>
-      <c r="AS59" s="26"/>
-      <c r="AT59" s="26"/>
-      <c r="AU59" s="26"/>
-      <c r="AV59" s="26"/>
-      <c r="AW59" s="26"/>
-      <c r="AX59" s="26"/>
-      <c r="AY59" s="26"/>
-      <c r="AZ59" s="26"/>
-      <c r="BA59" s="26"/>
-      <c r="BB59" s="26"/>
-      <c r="BC59" s="26"/>
-      <c r="BD59" s="26"/>
-      <c r="BE59" s="26"/>
-      <c r="BF59" s="26"/>
-      <c r="BG59" s="26"/>
-      <c r="BH59" s="26"/>
-      <c r="BI59" s="26"/>
-      <c r="BJ59" s="26"/>
-      <c r="BK59" s="26"/>
-      <c r="BL59" s="26"/>
-      <c r="BM59" s="26"/>
-      <c r="BN59" s="26"/>
+    <row r="59" spans="1:66" s="23" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A59" s="86" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
+        <v>3.3.1.1</v>
+      </c>
+      <c r="B59" s="168" t="s">
+        <v>68</v>
+      </c>
+      <c r="C59" s="19"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="171">
+        <v>43871</v>
+      </c>
+      <c r="F59" s="172">
+        <f t="shared" si="14"/>
+        <v>43873</v>
+      </c>
+      <c r="G59" s="21">
+        <v>3</v>
+      </c>
+      <c r="H59" s="22"/>
+      <c r="I59" s="102">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="J59" s="91"/>
+      <c r="K59" s="13"/>
+      <c r="L59" s="13"/>
+      <c r="M59" s="13"/>
+      <c r="N59" s="13"/>
+      <c r="O59" s="13"/>
+      <c r="P59" s="13"/>
+      <c r="Q59" s="13"/>
+      <c r="R59" s="13"/>
+      <c r="S59" s="13"/>
+      <c r="T59" s="13"/>
+      <c r="U59" s="13"/>
+      <c r="V59" s="13"/>
+      <c r="W59" s="13"/>
+      <c r="X59" s="13"/>
+      <c r="Y59" s="13"/>
+      <c r="Z59" s="13"/>
+      <c r="AA59" s="13"/>
+      <c r="AB59" s="13"/>
+      <c r="AC59" s="13"/>
+      <c r="AD59" s="13"/>
+      <c r="AE59" s="13"/>
+      <c r="AF59" s="13"/>
+      <c r="AG59" s="13"/>
+      <c r="AH59" s="13"/>
+      <c r="AI59" s="13"/>
+      <c r="AJ59" s="13"/>
+      <c r="AK59" s="13"/>
+      <c r="AL59" s="13"/>
+      <c r="AM59" s="13"/>
+      <c r="AN59" s="13"/>
+      <c r="AO59" s="13"/>
+      <c r="AP59" s="13"/>
+      <c r="AQ59" s="13"/>
+      <c r="AR59" s="13"/>
+      <c r="AS59" s="13"/>
+      <c r="AT59" s="13"/>
+      <c r="AU59" s="13"/>
+      <c r="AV59" s="13"/>
+      <c r="AW59" s="13"/>
+      <c r="AX59" s="13"/>
+      <c r="AY59" s="13"/>
+      <c r="AZ59" s="13"/>
+      <c r="BA59" s="13"/>
+      <c r="BB59" s="13"/>
+      <c r="BC59" s="13"/>
+      <c r="BD59" s="13"/>
+      <c r="BE59" s="13"/>
+      <c r="BF59" s="13"/>
+      <c r="BG59" s="13"/>
+      <c r="BH59" s="13"/>
+      <c r="BI59" s="13"/>
+      <c r="BJ59" s="13"/>
+      <c r="BK59" s="13"/>
+      <c r="BL59" s="13"/>
+      <c r="BM59" s="13"/>
+      <c r="BN59" s="13"/>
     </row>
-    <row r="60" spans="1:66" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="1:66" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="1:66" s="23" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A60" s="86" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
+        <v>3.3.1.2</v>
+      </c>
+      <c r="B60" s="168" t="s">
+        <v>69</v>
+      </c>
+      <c r="C60" s="19"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="171">
+        <v>43874</v>
+      </c>
+      <c r="F60" s="172">
+        <f t="shared" si="14"/>
+        <v>43876</v>
+      </c>
+      <c r="G60" s="21">
+        <v>3</v>
+      </c>
+      <c r="H60" s="22"/>
+      <c r="I60" s="102">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="J60" s="91"/>
+      <c r="K60" s="13"/>
+      <c r="L60" s="13"/>
+      <c r="M60" s="13"/>
+      <c r="N60" s="13"/>
+      <c r="O60" s="13"/>
+      <c r="P60" s="13"/>
+      <c r="Q60" s="13"/>
+      <c r="R60" s="13"/>
+      <c r="S60" s="13"/>
+      <c r="T60" s="13"/>
+      <c r="U60" s="13"/>
+      <c r="V60" s="13"/>
+      <c r="W60" s="13"/>
+      <c r="X60" s="13"/>
+      <c r="Y60" s="13"/>
+      <c r="Z60" s="13"/>
+      <c r="AA60" s="13"/>
+      <c r="AB60" s="13"/>
+      <c r="AC60" s="13"/>
+      <c r="AD60" s="13"/>
+      <c r="AE60" s="13"/>
+      <c r="AF60" s="13"/>
+      <c r="AG60" s="13"/>
+      <c r="AH60" s="13"/>
+      <c r="AI60" s="13"/>
+      <c r="AJ60" s="13"/>
+      <c r="AK60" s="13"/>
+      <c r="AL60" s="13"/>
+      <c r="AM60" s="13"/>
+      <c r="AN60" s="13"/>
+      <c r="AO60" s="13"/>
+      <c r="AP60" s="13"/>
+      <c r="AQ60" s="13"/>
+      <c r="AR60" s="13"/>
+      <c r="AS60" s="13"/>
+      <c r="AT60" s="13"/>
+      <c r="AU60" s="13"/>
+      <c r="AV60" s="13"/>
+      <c r="AW60" s="13"/>
+      <c r="AX60" s="13"/>
+      <c r="AY60" s="13"/>
+      <c r="AZ60" s="13"/>
+      <c r="BA60" s="13"/>
+      <c r="BB60" s="13"/>
+      <c r="BC60" s="13"/>
+      <c r="BD60" s="13"/>
+      <c r="BE60" s="13"/>
+      <c r="BF60" s="13"/>
+      <c r="BG60" s="13"/>
+      <c r="BH60" s="13"/>
+      <c r="BI60" s="13"/>
+      <c r="BJ60" s="13"/>
+      <c r="BK60" s="13"/>
+      <c r="BL60" s="13"/>
+      <c r="BM60" s="13"/>
+      <c r="BN60" s="13"/>
+    </row>
+    <row r="61" spans="1:66" s="23" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A61" s="86" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
+        <v>3.3.1.3</v>
+      </c>
+      <c r="B61" s="168" t="s">
+        <v>70</v>
+      </c>
+      <c r="C61" s="19"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="171">
+        <v>43874</v>
+      </c>
+      <c r="F61" s="172">
+        <f t="shared" ref="F61" si="15">IF(ISBLANK(E61)," - ",IF(G61=0,E61,E61+G61-1))</f>
+        <v>43876</v>
+      </c>
+      <c r="G61" s="21">
+        <v>3</v>
+      </c>
+      <c r="H61" s="22"/>
+      <c r="I61" s="102">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="J61" s="91"/>
+      <c r="K61" s="13"/>
+      <c r="L61" s="13"/>
+      <c r="M61" s="13"/>
+      <c r="N61" s="13"/>
+      <c r="O61" s="13"/>
+      <c r="P61" s="13"/>
+      <c r="Q61" s="13"/>
+      <c r="R61" s="13"/>
+      <c r="S61" s="13"/>
+      <c r="T61" s="13"/>
+      <c r="U61" s="13"/>
+      <c r="V61" s="13"/>
+      <c r="W61" s="13"/>
+      <c r="X61" s="13"/>
+      <c r="Y61" s="13"/>
+      <c r="Z61" s="13"/>
+      <c r="AA61" s="13"/>
+      <c r="AB61" s="13"/>
+      <c r="AC61" s="13"/>
+      <c r="AD61" s="13"/>
+      <c r="AE61" s="13"/>
+      <c r="AF61" s="13"/>
+      <c r="AG61" s="13"/>
+      <c r="AH61" s="13"/>
+      <c r="AI61" s="13"/>
+      <c r="AJ61" s="13"/>
+      <c r="AK61" s="13"/>
+      <c r="AL61" s="13"/>
+      <c r="AM61" s="13"/>
+      <c r="AN61" s="13"/>
+      <c r="AO61" s="13"/>
+      <c r="AP61" s="13"/>
+      <c r="AQ61" s="13"/>
+      <c r="AR61" s="13"/>
+      <c r="AS61" s="13"/>
+      <c r="AT61" s="13"/>
+      <c r="AU61" s="13"/>
+      <c r="AV61" s="13"/>
+      <c r="AW61" s="13"/>
+      <c r="AX61" s="13"/>
+      <c r="AY61" s="13"/>
+      <c r="AZ61" s="13"/>
+      <c r="BA61" s="13"/>
+      <c r="BB61" s="13"/>
+      <c r="BC61" s="13"/>
+      <c r="BD61" s="13"/>
+      <c r="BE61" s="13"/>
+      <c r="BF61" s="13"/>
+      <c r="BG61" s="13"/>
+      <c r="BH61" s="13"/>
+      <c r="BI61" s="13"/>
+      <c r="BJ61" s="13"/>
+      <c r="BK61" s="13"/>
+      <c r="BL61" s="13"/>
+      <c r="BM61" s="13"/>
+      <c r="BN61" s="13"/>
+    </row>
+    <row r="62" spans="1:66" s="23" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A62" s="124" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>3.3.2</v>
+      </c>
+      <c r="B62" s="169" t="s">
+        <v>74</v>
+      </c>
+      <c r="C62" s="19"/>
+      <c r="D62" s="20"/>
+      <c r="E62" s="171">
+        <v>43885</v>
+      </c>
+      <c r="F62" s="172">
+        <f t="shared" si="14"/>
+        <v>43890</v>
+      </c>
+      <c r="G62" s="21">
+        <v>6</v>
+      </c>
+      <c r="H62" s="22"/>
+      <c r="I62" s="102">
+        <f t="shared" si="13"/>
+        <v>6</v>
+      </c>
+      <c r="J62" s="91"/>
+      <c r="K62" s="13"/>
+      <c r="L62" s="13"/>
+      <c r="M62" s="13"/>
+      <c r="N62" s="13"/>
+      <c r="O62" s="13"/>
+      <c r="P62" s="13"/>
+      <c r="Q62" s="13"/>
+      <c r="R62" s="13"/>
+      <c r="S62" s="13"/>
+      <c r="T62" s="13"/>
+      <c r="U62" s="13"/>
+      <c r="V62" s="13"/>
+      <c r="W62" s="13"/>
+      <c r="X62" s="13"/>
+      <c r="Y62" s="13"/>
+      <c r="Z62" s="13"/>
+      <c r="AA62" s="13"/>
+      <c r="AB62" s="13"/>
+      <c r="AC62" s="13"/>
+      <c r="AD62" s="13"/>
+      <c r="AE62" s="13"/>
+      <c r="AF62" s="13"/>
+      <c r="AG62" s="13"/>
+      <c r="AH62" s="13"/>
+      <c r="AI62" s="13"/>
+      <c r="AJ62" s="13"/>
+      <c r="AK62" s="13"/>
+      <c r="AL62" s="13"/>
+      <c r="AM62" s="13"/>
+      <c r="AN62" s="13"/>
+      <c r="AO62" s="13"/>
+      <c r="AP62" s="13"/>
+      <c r="AQ62" s="13"/>
+      <c r="AR62" s="13"/>
+      <c r="AS62" s="13"/>
+      <c r="AT62" s="13"/>
+      <c r="AU62" s="13"/>
+      <c r="AV62" s="13"/>
+      <c r="AW62" s="13"/>
+      <c r="AX62" s="13"/>
+      <c r="AY62" s="13"/>
+      <c r="AZ62" s="13"/>
+      <c r="BA62" s="13"/>
+      <c r="BB62" s="13"/>
+      <c r="BC62" s="13"/>
+      <c r="BD62" s="13"/>
+      <c r="BE62" s="13"/>
+      <c r="BF62" s="13"/>
+      <c r="BG62" s="13"/>
+      <c r="BH62" s="13"/>
+      <c r="BI62" s="13"/>
+      <c r="BJ62" s="13"/>
+      <c r="BK62" s="13"/>
+      <c r="BL62" s="13"/>
+      <c r="BM62" s="13"/>
+      <c r="BN62" s="13"/>
+    </row>
+    <row r="63" spans="1:66" s="23" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A63" s="10"/>
+      <c r="B63" s="19"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="20"/>
+      <c r="E63" s="81"/>
+      <c r="F63" s="81"/>
+      <c r="G63" s="21"/>
+      <c r="H63" s="22"/>
+      <c r="I63" s="102"/>
+      <c r="J63" s="91"/>
+      <c r="K63" s="13"/>
+      <c r="L63" s="13"/>
+      <c r="M63" s="13"/>
+      <c r="N63" s="13"/>
+      <c r="O63" s="13"/>
+      <c r="P63" s="13"/>
+      <c r="Q63" s="13"/>
+      <c r="R63" s="13"/>
+      <c r="S63" s="13"/>
+      <c r="T63" s="13"/>
+      <c r="U63" s="13"/>
+      <c r="V63" s="13"/>
+      <c r="W63" s="13"/>
+      <c r="X63" s="13"/>
+      <c r="Y63" s="13"/>
+      <c r="Z63" s="13"/>
+      <c r="AA63" s="13"/>
+      <c r="AB63" s="13"/>
+      <c r="AC63" s="13"/>
+      <c r="AD63" s="13"/>
+      <c r="AE63" s="13"/>
+      <c r="AF63" s="13"/>
+      <c r="AG63" s="13"/>
+      <c r="AH63" s="13"/>
+      <c r="AI63" s="13"/>
+      <c r="AJ63" s="13"/>
+      <c r="AK63" s="13"/>
+      <c r="AL63" s="13"/>
+      <c r="AM63" s="13"/>
+      <c r="AN63" s="13"/>
+      <c r="AO63" s="13"/>
+      <c r="AP63" s="13"/>
+      <c r="AQ63" s="13"/>
+      <c r="AR63" s="13"/>
+      <c r="AS63" s="13"/>
+      <c r="AT63" s="13"/>
+      <c r="AU63" s="13"/>
+      <c r="AV63" s="13"/>
+      <c r="AW63" s="13"/>
+      <c r="AX63" s="13"/>
+      <c r="AY63" s="13"/>
+      <c r="AZ63" s="13"/>
+      <c r="BA63" s="13"/>
+      <c r="BB63" s="13"/>
+      <c r="BC63" s="13"/>
+      <c r="BD63" s="13"/>
+      <c r="BE63" s="13"/>
+      <c r="BF63" s="13"/>
+      <c r="BG63" s="13"/>
+      <c r="BH63" s="13"/>
+      <c r="BI63" s="13"/>
+      <c r="BJ63" s="13"/>
+      <c r="BK63" s="13"/>
+      <c r="BL63" s="13"/>
+      <c r="BM63" s="13"/>
+      <c r="BN63" s="13"/>
+    </row>
+    <row r="64" spans="1:66" s="23" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A64" s="10"/>
+      <c r="B64" s="19"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="81"/>
+      <c r="F64" s="81"/>
+      <c r="G64" s="21"/>
+      <c r="H64" s="22"/>
+      <c r="I64" s="102"/>
+      <c r="J64" s="91"/>
+      <c r="K64" s="13"/>
+      <c r="L64" s="13"/>
+      <c r="M64" s="13"/>
+      <c r="N64" s="13"/>
+      <c r="O64" s="13"/>
+      <c r="P64" s="13"/>
+      <c r="Q64" s="13"/>
+      <c r="R64" s="13"/>
+      <c r="S64" s="13"/>
+      <c r="T64" s="13"/>
+      <c r="U64" s="13"/>
+      <c r="V64" s="13"/>
+      <c r="W64" s="13"/>
+      <c r="X64" s="13"/>
+      <c r="Y64" s="13"/>
+      <c r="Z64" s="13"/>
+      <c r="AA64" s="13"/>
+      <c r="AB64" s="13"/>
+      <c r="AC64" s="13"/>
+      <c r="AD64" s="13"/>
+      <c r="AE64" s="13"/>
+      <c r="AF64" s="13"/>
+      <c r="AG64" s="13"/>
+      <c r="AH64" s="13"/>
+      <c r="AI64" s="13"/>
+      <c r="AJ64" s="13"/>
+      <c r="AK64" s="13"/>
+      <c r="AL64" s="13"/>
+      <c r="AM64" s="13"/>
+      <c r="AN64" s="13"/>
+      <c r="AO64" s="13"/>
+      <c r="AP64" s="13"/>
+      <c r="AQ64" s="13"/>
+      <c r="AR64" s="13"/>
+      <c r="AS64" s="13"/>
+      <c r="AT64" s="13"/>
+      <c r="AU64" s="13"/>
+      <c r="AV64" s="13"/>
+      <c r="AW64" s="13"/>
+      <c r="AX64" s="13"/>
+      <c r="AY64" s="13"/>
+      <c r="AZ64" s="13"/>
+      <c r="BA64" s="13"/>
+      <c r="BB64" s="13"/>
+      <c r="BC64" s="13"/>
+      <c r="BD64" s="13"/>
+      <c r="BE64" s="13"/>
+      <c r="BF64" s="13"/>
+      <c r="BG64" s="13"/>
+      <c r="BH64" s="13"/>
+      <c r="BI64" s="13"/>
+      <c r="BJ64" s="13"/>
+      <c r="BK64" s="13"/>
+      <c r="BL64" s="13"/>
+      <c r="BM64" s="13"/>
+      <c r="BN64" s="13"/>
+    </row>
+    <row r="65" spans="1:66" s="23" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A65" s="10"/>
+      <c r="B65" s="19"/>
+      <c r="C65" s="19"/>
+      <c r="D65" s="20"/>
+      <c r="E65" s="81"/>
+      <c r="F65" s="81"/>
+      <c r="G65" s="21"/>
+      <c r="H65" s="22"/>
+      <c r="I65" s="102"/>
+      <c r="J65" s="91"/>
+      <c r="K65" s="13"/>
+      <c r="L65" s="13"/>
+      <c r="M65" s="13"/>
+      <c r="N65" s="13"/>
+      <c r="O65" s="13"/>
+      <c r="P65" s="13"/>
+      <c r="Q65" s="13"/>
+      <c r="R65" s="13"/>
+      <c r="S65" s="13"/>
+      <c r="T65" s="13"/>
+      <c r="U65" s="13"/>
+      <c r="V65" s="13"/>
+      <c r="W65" s="13"/>
+      <c r="X65" s="13"/>
+      <c r="Y65" s="13"/>
+      <c r="Z65" s="13"/>
+      <c r="AA65" s="13"/>
+      <c r="AB65" s="13"/>
+      <c r="AC65" s="13"/>
+      <c r="AD65" s="13"/>
+      <c r="AE65" s="13"/>
+      <c r="AF65" s="13"/>
+      <c r="AG65" s="13"/>
+      <c r="AH65" s="13"/>
+      <c r="AI65" s="13"/>
+      <c r="AJ65" s="13"/>
+      <c r="AK65" s="13"/>
+      <c r="AL65" s="13"/>
+      <c r="AM65" s="13"/>
+      <c r="AN65" s="13"/>
+      <c r="AO65" s="13"/>
+      <c r="AP65" s="13"/>
+      <c r="AQ65" s="13"/>
+      <c r="AR65" s="13"/>
+      <c r="AS65" s="13"/>
+      <c r="AT65" s="13"/>
+      <c r="AU65" s="13"/>
+      <c r="AV65" s="13"/>
+      <c r="AW65" s="13"/>
+      <c r="AX65" s="13"/>
+      <c r="AY65" s="13"/>
+      <c r="AZ65" s="13"/>
+      <c r="BA65" s="13"/>
+      <c r="BB65" s="13"/>
+      <c r="BC65" s="13"/>
+      <c r="BD65" s="13"/>
+      <c r="BE65" s="13"/>
+      <c r="BF65" s="13"/>
+      <c r="BG65" s="13"/>
+      <c r="BH65" s="13"/>
+      <c r="BI65" s="13"/>
+      <c r="BJ65" s="13"/>
+      <c r="BK65" s="13"/>
+      <c r="BL65" s="13"/>
+      <c r="BM65" s="13"/>
+      <c r="BN65" s="13"/>
+    </row>
+    <row r="66" spans="1:66" s="23" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A66" s="10"/>
+      <c r="B66" s="19"/>
+      <c r="C66" s="19"/>
+      <c r="D66" s="20"/>
+      <c r="E66" s="81"/>
+      <c r="F66" s="81"/>
+      <c r="G66" s="21"/>
+      <c r="H66" s="22"/>
+      <c r="I66" s="102"/>
+      <c r="J66" s="91"/>
+      <c r="K66" s="13"/>
+      <c r="L66" s="13"/>
+      <c r="M66" s="13"/>
+      <c r="N66" s="13"/>
+      <c r="O66" s="13"/>
+      <c r="P66" s="13"/>
+      <c r="Q66" s="13"/>
+      <c r="R66" s="13"/>
+      <c r="S66" s="13"/>
+      <c r="T66" s="13"/>
+      <c r="U66" s="13"/>
+      <c r="V66" s="13"/>
+      <c r="W66" s="13"/>
+      <c r="X66" s="13"/>
+      <c r="Y66" s="13"/>
+      <c r="Z66" s="13"/>
+      <c r="AA66" s="13"/>
+      <c r="AB66" s="13"/>
+      <c r="AC66" s="13"/>
+      <c r="AD66" s="13"/>
+      <c r="AE66" s="13"/>
+      <c r="AF66" s="13"/>
+      <c r="AG66" s="13"/>
+      <c r="AH66" s="13"/>
+      <c r="AI66" s="13"/>
+      <c r="AJ66" s="13"/>
+      <c r="AK66" s="13"/>
+      <c r="AL66" s="13"/>
+      <c r="AM66" s="13"/>
+      <c r="AN66" s="13"/>
+      <c r="AO66" s="13"/>
+      <c r="AP66" s="13"/>
+      <c r="AQ66" s="13"/>
+      <c r="AR66" s="13"/>
+      <c r="AS66" s="13"/>
+      <c r="AT66" s="13"/>
+      <c r="AU66" s="13"/>
+      <c r="AV66" s="13"/>
+      <c r="AW66" s="13"/>
+      <c r="AX66" s="13"/>
+      <c r="AY66" s="13"/>
+      <c r="AZ66" s="13"/>
+      <c r="BA66" s="13"/>
+      <c r="BB66" s="13"/>
+      <c r="BC66" s="13"/>
+      <c r="BD66" s="13"/>
+      <c r="BE66" s="13"/>
+      <c r="BF66" s="13"/>
+      <c r="BG66" s="13"/>
+      <c r="BH66" s="13"/>
+      <c r="BI66" s="13"/>
+      <c r="BJ66" s="13"/>
+      <c r="BK66" s="13"/>
+      <c r="BL66" s="13"/>
+      <c r="BM66" s="13"/>
+      <c r="BN66" s="13"/>
+    </row>
+    <row r="67" spans="1:66" s="23" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A67" s="10"/>
+      <c r="B67" s="19"/>
+      <c r="C67" s="19"/>
+      <c r="D67" s="20"/>
+      <c r="E67" s="81"/>
+      <c r="F67" s="81"/>
+      <c r="G67" s="21"/>
+      <c r="H67" s="22"/>
+      <c r="I67" s="102"/>
+      <c r="J67" s="91"/>
+      <c r="K67" s="13"/>
+      <c r="L67" s="13"/>
+      <c r="M67" s="13"/>
+      <c r="N67" s="13"/>
+      <c r="O67" s="13"/>
+      <c r="P67" s="13"/>
+      <c r="Q67" s="13"/>
+      <c r="R67" s="13"/>
+      <c r="S67" s="13"/>
+      <c r="T67" s="13"/>
+      <c r="U67" s="13"/>
+      <c r="V67" s="13"/>
+      <c r="W67" s="13"/>
+      <c r="X67" s="13"/>
+      <c r="Y67" s="13"/>
+      <c r="Z67" s="13"/>
+      <c r="AA67" s="13"/>
+      <c r="AB67" s="13"/>
+      <c r="AC67" s="13"/>
+      <c r="AD67" s="13"/>
+      <c r="AE67" s="13"/>
+      <c r="AF67" s="13"/>
+      <c r="AG67" s="13"/>
+      <c r="AH67" s="13"/>
+      <c r="AI67" s="13"/>
+      <c r="AJ67" s="13"/>
+      <c r="AK67" s="13"/>
+      <c r="AL67" s="13"/>
+      <c r="AM67" s="13"/>
+      <c r="AN67" s="13"/>
+      <c r="AO67" s="13"/>
+      <c r="AP67" s="13"/>
+      <c r="AQ67" s="13"/>
+      <c r="AR67" s="13"/>
+      <c r="AS67" s="13"/>
+      <c r="AT67" s="13"/>
+      <c r="AU67" s="13"/>
+      <c r="AV67" s="13"/>
+      <c r="AW67" s="13"/>
+      <c r="AX67" s="13"/>
+      <c r="AY67" s="13"/>
+      <c r="AZ67" s="13"/>
+      <c r="BA67" s="13"/>
+      <c r="BB67" s="13"/>
+      <c r="BC67" s="13"/>
+      <c r="BD67" s="13"/>
+      <c r="BE67" s="13"/>
+      <c r="BF67" s="13"/>
+      <c r="BG67" s="13"/>
+      <c r="BH67" s="13"/>
+      <c r="BI67" s="13"/>
+      <c r="BJ67" s="13"/>
+      <c r="BK67" s="13"/>
+      <c r="BL67" s="13"/>
+      <c r="BM67" s="13"/>
+      <c r="BN67" s="13"/>
+    </row>
+    <row r="68" spans="1:66" s="23" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A68" s="10"/>
+      <c r="B68" s="19"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="20"/>
+      <c r="E68" s="81"/>
+      <c r="F68" s="81"/>
+      <c r="G68" s="21"/>
+      <c r="H68" s="22"/>
+      <c r="I68" s="102"/>
+      <c r="J68" s="91"/>
+      <c r="K68" s="13"/>
+      <c r="L68" s="13"/>
+      <c r="M68" s="13"/>
+      <c r="N68" s="13"/>
+      <c r="O68" s="13"/>
+      <c r="P68" s="13"/>
+      <c r="Q68" s="13"/>
+      <c r="R68" s="13"/>
+      <c r="S68" s="13"/>
+      <c r="T68" s="13"/>
+      <c r="U68" s="13"/>
+      <c r="V68" s="13"/>
+      <c r="W68" s="13"/>
+      <c r="X68" s="13"/>
+      <c r="Y68" s="13"/>
+      <c r="Z68" s="13"/>
+      <c r="AA68" s="13"/>
+      <c r="AB68" s="13"/>
+      <c r="AC68" s="13"/>
+      <c r="AD68" s="13"/>
+      <c r="AE68" s="13"/>
+      <c r="AF68" s="13"/>
+      <c r="AG68" s="13"/>
+      <c r="AH68" s="13"/>
+      <c r="AI68" s="13"/>
+      <c r="AJ68" s="13"/>
+      <c r="AK68" s="13"/>
+      <c r="AL68" s="13"/>
+      <c r="AM68" s="13"/>
+      <c r="AN68" s="13"/>
+      <c r="AO68" s="13"/>
+      <c r="AP68" s="13"/>
+      <c r="AQ68" s="13"/>
+      <c r="AR68" s="13"/>
+      <c r="AS68" s="13"/>
+      <c r="AT68" s="13"/>
+      <c r="AU68" s="13"/>
+      <c r="AV68" s="13"/>
+      <c r="AW68" s="13"/>
+      <c r="AX68" s="13"/>
+      <c r="AY68" s="13"/>
+      <c r="AZ68" s="13"/>
+      <c r="BA68" s="13"/>
+      <c r="BB68" s="13"/>
+      <c r="BC68" s="13"/>
+      <c r="BD68" s="13"/>
+      <c r="BE68" s="13"/>
+      <c r="BF68" s="13"/>
+      <c r="BG68" s="13"/>
+      <c r="BH68" s="13"/>
+      <c r="BI68" s="13"/>
+      <c r="BJ68" s="13"/>
+      <c r="BK68" s="13"/>
+      <c r="BL68" s="13"/>
+      <c r="BM68" s="13"/>
+      <c r="BN68" s="13"/>
+    </row>
+    <row r="69" spans="1:66" s="23" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A69" s="10"/>
+      <c r="B69" s="19"/>
+      <c r="C69" s="19"/>
+      <c r="D69" s="20"/>
+      <c r="E69" s="81"/>
+      <c r="F69" s="81"/>
+      <c r="G69" s="21"/>
+      <c r="H69" s="22"/>
+      <c r="I69" s="102"/>
+      <c r="J69" s="91"/>
+      <c r="K69" s="13"/>
+      <c r="L69" s="13"/>
+      <c r="M69" s="13"/>
+      <c r="N69" s="13"/>
+      <c r="O69" s="13"/>
+      <c r="P69" s="13"/>
+      <c r="Q69" s="13"/>
+      <c r="R69" s="13"/>
+      <c r="S69" s="13"/>
+      <c r="T69" s="13"/>
+      <c r="U69" s="13"/>
+      <c r="V69" s="13"/>
+      <c r="W69" s="13"/>
+      <c r="X69" s="13"/>
+      <c r="Y69" s="13"/>
+      <c r="Z69" s="13"/>
+      <c r="AA69" s="13"/>
+      <c r="AB69" s="13"/>
+      <c r="AC69" s="13"/>
+      <c r="AD69" s="13"/>
+      <c r="AE69" s="13"/>
+      <c r="AF69" s="13"/>
+      <c r="AG69" s="13"/>
+      <c r="AH69" s="13"/>
+      <c r="AI69" s="13"/>
+      <c r="AJ69" s="13"/>
+      <c r="AK69" s="13"/>
+      <c r="AL69" s="13"/>
+      <c r="AM69" s="13"/>
+      <c r="AN69" s="13"/>
+      <c r="AO69" s="13"/>
+      <c r="AP69" s="13"/>
+      <c r="AQ69" s="13"/>
+      <c r="AR69" s="13"/>
+      <c r="AS69" s="13"/>
+      <c r="AT69" s="13"/>
+      <c r="AU69" s="13"/>
+      <c r="AV69" s="13"/>
+      <c r="AW69" s="13"/>
+      <c r="AX69" s="13"/>
+      <c r="AY69" s="13"/>
+      <c r="AZ69" s="13"/>
+      <c r="BA69" s="13"/>
+      <c r="BB69" s="13"/>
+      <c r="BC69" s="13"/>
+      <c r="BD69" s="13"/>
+      <c r="BE69" s="13"/>
+      <c r="BF69" s="13"/>
+      <c r="BG69" s="13"/>
+      <c r="BH69" s="13"/>
+      <c r="BI69" s="13"/>
+      <c r="BJ69" s="13"/>
+      <c r="BK69" s="13"/>
+      <c r="BL69" s="13"/>
+      <c r="BM69" s="13"/>
+      <c r="BN69" s="13"/>
+    </row>
+    <row r="70" spans="1:66" s="23" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A70" s="10"/>
+      <c r="B70" s="19"/>
+      <c r="C70" s="19"/>
+      <c r="D70" s="20"/>
+      <c r="E70" s="81"/>
+      <c r="F70" s="81"/>
+      <c r="G70" s="21"/>
+      <c r="H70" s="22"/>
+      <c r="I70" s="102"/>
+      <c r="J70" s="91"/>
+      <c r="K70" s="13"/>
+      <c r="L70" s="13"/>
+      <c r="M70" s="13"/>
+      <c r="N70" s="13"/>
+      <c r="O70" s="13"/>
+      <c r="P70" s="13"/>
+      <c r="Q70" s="13"/>
+      <c r="R70" s="13"/>
+      <c r="S70" s="13"/>
+      <c r="T70" s="13"/>
+      <c r="U70" s="13"/>
+      <c r="V70" s="13"/>
+      <c r="W70" s="13"/>
+      <c r="X70" s="13"/>
+      <c r="Y70" s="13"/>
+      <c r="Z70" s="13"/>
+      <c r="AA70" s="13"/>
+      <c r="AB70" s="13"/>
+      <c r="AC70" s="13"/>
+      <c r="AD70" s="13"/>
+      <c r="AE70" s="13"/>
+      <c r="AF70" s="13"/>
+      <c r="AG70" s="13"/>
+      <c r="AH70" s="13"/>
+      <c r="AI70" s="13"/>
+      <c r="AJ70" s="13"/>
+      <c r="AK70" s="13"/>
+      <c r="AL70" s="13"/>
+      <c r="AM70" s="13"/>
+      <c r="AN70" s="13"/>
+      <c r="AO70" s="13"/>
+      <c r="AP70" s="13"/>
+      <c r="AQ70" s="13"/>
+      <c r="AR70" s="13"/>
+      <c r="AS70" s="13"/>
+      <c r="AT70" s="13"/>
+      <c r="AU70" s="13"/>
+      <c r="AV70" s="13"/>
+      <c r="AW70" s="13"/>
+      <c r="AX70" s="13"/>
+      <c r="AY70" s="13"/>
+      <c r="AZ70" s="13"/>
+      <c r="BA70" s="13"/>
+      <c r="BB70" s="13"/>
+      <c r="BC70" s="13"/>
+      <c r="BD70" s="13"/>
+      <c r="BE70" s="13"/>
+      <c r="BF70" s="13"/>
+      <c r="BG70" s="13"/>
+      <c r="BH70" s="13"/>
+      <c r="BI70" s="13"/>
+      <c r="BJ70" s="13"/>
+      <c r="BK70" s="13"/>
+      <c r="BL70" s="13"/>
+      <c r="BM70" s="13"/>
+      <c r="BN70" s="13"/>
+    </row>
+    <row r="71" spans="1:66" s="23" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A71" s="10"/>
+      <c r="B71" s="19"/>
+      <c r="C71" s="19"/>
+      <c r="D71" s="20"/>
+      <c r="E71" s="81"/>
+      <c r="F71" s="81"/>
+      <c r="G71" s="21"/>
+      <c r="H71" s="22"/>
+      <c r="I71" s="102"/>
+      <c r="J71" s="91"/>
+      <c r="K71" s="13"/>
+      <c r="L71" s="13"/>
+      <c r="M71" s="13"/>
+      <c r="N71" s="13"/>
+      <c r="O71" s="13"/>
+      <c r="P71" s="13"/>
+      <c r="Q71" s="13"/>
+      <c r="R71" s="13"/>
+      <c r="S71" s="13"/>
+      <c r="T71" s="13"/>
+      <c r="U71" s="13"/>
+      <c r="V71" s="13"/>
+      <c r="W71" s="13"/>
+      <c r="X71" s="13"/>
+      <c r="Y71" s="13"/>
+      <c r="Z71" s="13"/>
+      <c r="AA71" s="13"/>
+      <c r="AB71" s="13"/>
+      <c r="AC71" s="13"/>
+      <c r="AD71" s="13"/>
+      <c r="AE71" s="13"/>
+      <c r="AF71" s="13"/>
+      <c r="AG71" s="13"/>
+      <c r="AH71" s="13"/>
+      <c r="AI71" s="13"/>
+      <c r="AJ71" s="13"/>
+      <c r="AK71" s="13"/>
+      <c r="AL71" s="13"/>
+      <c r="AM71" s="13"/>
+      <c r="AN71" s="13"/>
+      <c r="AO71" s="13"/>
+      <c r="AP71" s="13"/>
+      <c r="AQ71" s="13"/>
+      <c r="AR71" s="13"/>
+      <c r="AS71" s="13"/>
+      <c r="AT71" s="13"/>
+      <c r="AU71" s="13"/>
+      <c r="AV71" s="13"/>
+      <c r="AW71" s="13"/>
+      <c r="AX71" s="13"/>
+      <c r="AY71" s="13"/>
+      <c r="AZ71" s="13"/>
+      <c r="BA71" s="13"/>
+      <c r="BB71" s="13"/>
+      <c r="BC71" s="13"/>
+      <c r="BD71" s="13"/>
+      <c r="BE71" s="13"/>
+      <c r="BF71" s="13"/>
+      <c r="BG71" s="13"/>
+      <c r="BH71" s="13"/>
+      <c r="BI71" s="13"/>
+      <c r="BJ71" s="13"/>
+      <c r="BK71" s="13"/>
+      <c r="BL71" s="13"/>
+      <c r="BM71" s="13"/>
+      <c r="BN71" s="13"/>
+    </row>
+    <row r="72" spans="1:66" s="23" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A72" s="10"/>
+      <c r="B72" s="19"/>
+      <c r="C72" s="19"/>
+      <c r="D72" s="20"/>
+      <c r="E72" s="81"/>
+      <c r="F72" s="81"/>
+      <c r="G72" s="21"/>
+      <c r="H72" s="22"/>
+      <c r="I72" s="102"/>
+      <c r="J72" s="91"/>
+      <c r="K72" s="13"/>
+      <c r="L72" s="13"/>
+      <c r="M72" s="13"/>
+      <c r="N72" s="13"/>
+      <c r="O72" s="13"/>
+      <c r="P72" s="13"/>
+      <c r="Q72" s="13"/>
+      <c r="R72" s="13"/>
+      <c r="S72" s="13"/>
+      <c r="T72" s="13"/>
+      <c r="U72" s="13"/>
+      <c r="V72" s="13"/>
+      <c r="W72" s="13"/>
+      <c r="X72" s="13"/>
+      <c r="Y72" s="13"/>
+      <c r="Z72" s="13"/>
+      <c r="AA72" s="13"/>
+      <c r="AB72" s="13"/>
+      <c r="AC72" s="13"/>
+      <c r="AD72" s="13"/>
+      <c r="AE72" s="13"/>
+      <c r="AF72" s="13"/>
+      <c r="AG72" s="13"/>
+      <c r="AH72" s="13"/>
+      <c r="AI72" s="13"/>
+      <c r="AJ72" s="13"/>
+      <c r="AK72" s="13"/>
+      <c r="AL72" s="13"/>
+      <c r="AM72" s="13"/>
+      <c r="AN72" s="13"/>
+      <c r="AO72" s="13"/>
+      <c r="AP72" s="13"/>
+      <c r="AQ72" s="13"/>
+      <c r="AR72" s="13"/>
+      <c r="AS72" s="13"/>
+      <c r="AT72" s="13"/>
+      <c r="AU72" s="13"/>
+      <c r="AV72" s="13"/>
+      <c r="AW72" s="13"/>
+      <c r="AX72" s="13"/>
+      <c r="AY72" s="13"/>
+      <c r="AZ72" s="13"/>
+      <c r="BA72" s="13"/>
+      <c r="BB72" s="13"/>
+      <c r="BC72" s="13"/>
+      <c r="BD72" s="13"/>
+      <c r="BE72" s="13"/>
+      <c r="BF72" s="13"/>
+      <c r="BG72" s="13"/>
+      <c r="BH72" s="13"/>
+      <c r="BI72" s="13"/>
+      <c r="BJ72" s="13"/>
+      <c r="BK72" s="13"/>
+      <c r="BL72" s="13"/>
+      <c r="BM72" s="13"/>
+      <c r="BN72" s="13"/>
+    </row>
+    <row r="73" spans="1:66" s="23" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A73" s="10"/>
+      <c r="B73" s="19"/>
+      <c r="C73" s="19"/>
+      <c r="D73" s="20"/>
+      <c r="E73" s="81"/>
+      <c r="F73" s="81"/>
+      <c r="G73" s="21"/>
+      <c r="H73" s="22"/>
+      <c r="I73" s="102"/>
+      <c r="J73" s="91"/>
+      <c r="K73" s="13"/>
+      <c r="L73" s="13"/>
+      <c r="M73" s="13"/>
+      <c r="N73" s="13"/>
+      <c r="O73" s="13"/>
+      <c r="P73" s="13"/>
+      <c r="Q73" s="13"/>
+      <c r="R73" s="13"/>
+      <c r="S73" s="13"/>
+      <c r="T73" s="13"/>
+      <c r="U73" s="13"/>
+      <c r="V73" s="13"/>
+      <c r="W73" s="13"/>
+      <c r="X73" s="13"/>
+      <c r="Y73" s="13"/>
+      <c r="Z73" s="13"/>
+      <c r="AA73" s="13"/>
+      <c r="AB73" s="13"/>
+      <c r="AC73" s="13"/>
+      <c r="AD73" s="13"/>
+      <c r="AE73" s="13"/>
+      <c r="AF73" s="13"/>
+      <c r="AG73" s="13"/>
+      <c r="AH73" s="13"/>
+      <c r="AI73" s="13"/>
+      <c r="AJ73" s="13"/>
+      <c r="AK73" s="13"/>
+      <c r="AL73" s="13"/>
+      <c r="AM73" s="13"/>
+      <c r="AN73" s="13"/>
+      <c r="AO73" s="13"/>
+      <c r="AP73" s="13"/>
+      <c r="AQ73" s="13"/>
+      <c r="AR73" s="13"/>
+      <c r="AS73" s="13"/>
+      <c r="AT73" s="13"/>
+      <c r="AU73" s="13"/>
+      <c r="AV73" s="13"/>
+      <c r="AW73" s="13"/>
+      <c r="AX73" s="13"/>
+      <c r="AY73" s="13"/>
+      <c r="AZ73" s="13"/>
+      <c r="BA73" s="13"/>
+      <c r="BB73" s="13"/>
+      <c r="BC73" s="13"/>
+      <c r="BD73" s="13"/>
+      <c r="BE73" s="13"/>
+      <c r="BF73" s="13"/>
+      <c r="BG73" s="13"/>
+      <c r="BH73" s="13"/>
+      <c r="BI73" s="13"/>
+      <c r="BJ73" s="13"/>
+      <c r="BK73" s="13"/>
+      <c r="BL73" s="13"/>
+      <c r="BM73" s="13"/>
+      <c r="BN73" s="13"/>
+    </row>
+    <row r="74" spans="1:66" s="23" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A74" s="10"/>
+      <c r="B74" s="19"/>
+      <c r="C74" s="19"/>
+      <c r="D74" s="20"/>
+      <c r="E74" s="81"/>
+      <c r="F74" s="81"/>
+      <c r="G74" s="21"/>
+      <c r="H74" s="22"/>
+      <c r="I74" s="102"/>
+      <c r="J74" s="91"/>
+      <c r="K74" s="13"/>
+      <c r="L74" s="13"/>
+      <c r="M74" s="13"/>
+      <c r="N74" s="13"/>
+      <c r="O74" s="13"/>
+      <c r="P74" s="13"/>
+      <c r="Q74" s="13"/>
+      <c r="R74" s="13"/>
+      <c r="S74" s="13"/>
+      <c r="T74" s="13"/>
+      <c r="U74" s="13"/>
+      <c r="V74" s="13"/>
+      <c r="W74" s="13"/>
+      <c r="X74" s="13"/>
+      <c r="Y74" s="13"/>
+      <c r="Z74" s="13"/>
+      <c r="AA74" s="13"/>
+      <c r="AB74" s="13"/>
+      <c r="AC74" s="13"/>
+      <c r="AD74" s="13"/>
+      <c r="AE74" s="13"/>
+      <c r="AF74" s="13"/>
+      <c r="AG74" s="13"/>
+      <c r="AH74" s="13"/>
+      <c r="AI74" s="13"/>
+      <c r="AJ74" s="13"/>
+      <c r="AK74" s="13"/>
+      <c r="AL74" s="13"/>
+      <c r="AM74" s="13"/>
+      <c r="AN74" s="13"/>
+      <c r="AO74" s="13"/>
+      <c r="AP74" s="13"/>
+      <c r="AQ74" s="13"/>
+      <c r="AR74" s="13"/>
+      <c r="AS74" s="13"/>
+      <c r="AT74" s="13"/>
+      <c r="AU74" s="13"/>
+      <c r="AV74" s="13"/>
+      <c r="AW74" s="13"/>
+      <c r="AX74" s="13"/>
+      <c r="AY74" s="13"/>
+      <c r="AZ74" s="13"/>
+      <c r="BA74" s="13"/>
+      <c r="BB74" s="13"/>
+      <c r="BC74" s="13"/>
+      <c r="BD74" s="13"/>
+      <c r="BE74" s="13"/>
+      <c r="BF74" s="13"/>
+      <c r="BG74" s="13"/>
+      <c r="BH74" s="13"/>
+      <c r="BI74" s="13"/>
+      <c r="BJ74" s="13"/>
+      <c r="BK74" s="13"/>
+      <c r="BL74" s="13"/>
+      <c r="BM74" s="13"/>
+      <c r="BN74" s="13"/>
+    </row>
+    <row r="75" spans="1:66" s="24" customFormat="1" ht="0.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="103" t="s">
+        <v>1</v>
+      </c>
+      <c r="B75" s="37"/>
+      <c r="C75" s="37"/>
+      <c r="D75" s="37"/>
+      <c r="E75" s="37"/>
+      <c r="F75" s="37"/>
+      <c r="G75" s="37"/>
+      <c r="H75" s="37"/>
+      <c r="I75" s="37"/>
+      <c r="J75" s="37"/>
+      <c r="K75" s="13"/>
+      <c r="L75" s="13"/>
+      <c r="M75" s="13"/>
+      <c r="N75" s="13"/>
+      <c r="O75" s="13"/>
+      <c r="P75" s="13"/>
+      <c r="Q75" s="13"/>
+      <c r="R75" s="13"/>
+      <c r="S75" s="13"/>
+      <c r="T75" s="13"/>
+      <c r="U75" s="13"/>
+      <c r="V75" s="13"/>
+      <c r="W75" s="13"/>
+      <c r="X75" s="13"/>
+      <c r="Y75" s="13"/>
+      <c r="Z75" s="13"/>
+      <c r="AA75" s="13"/>
+      <c r="AB75" s="13"/>
+      <c r="AC75" s="13"/>
+      <c r="AD75" s="13"/>
+      <c r="AE75" s="13"/>
+      <c r="AF75" s="13"/>
+      <c r="AG75" s="13"/>
+      <c r="AH75" s="13"/>
+      <c r="AI75" s="13"/>
+      <c r="AJ75" s="13"/>
+      <c r="AK75" s="13"/>
+      <c r="AL75" s="13"/>
+      <c r="AM75" s="13"/>
+      <c r="AN75" s="13"/>
+      <c r="AO75" s="13"/>
+      <c r="AP75" s="13"/>
+      <c r="AQ75" s="13"/>
+      <c r="AR75" s="13"/>
+      <c r="AS75" s="13"/>
+      <c r="AT75" s="13"/>
+      <c r="AU75" s="13"/>
+      <c r="AV75" s="13"/>
+      <c r="AW75" s="13"/>
+      <c r="AX75" s="13"/>
+      <c r="AY75" s="13"/>
+      <c r="AZ75" s="13"/>
+      <c r="BA75" s="13"/>
+      <c r="BB75" s="13"/>
+      <c r="BC75" s="13"/>
+      <c r="BD75" s="13"/>
+      <c r="BE75" s="13"/>
+      <c r="BF75" s="13"/>
+      <c r="BG75" s="13"/>
+      <c r="BH75" s="13"/>
+      <c r="BI75" s="13"/>
+      <c r="BJ75" s="13"/>
+      <c r="BK75" s="13"/>
+      <c r="BL75" s="13"/>
+      <c r="BM75" s="13"/>
+      <c r="BN75" s="13"/>
+    </row>
+    <row r="76" spans="1:66" s="23" customFormat="1" ht="18" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="104" t="s">
+        <v>15</v>
+      </c>
+      <c r="B76" s="105"/>
+      <c r="C76" s="105"/>
+      <c r="D76" s="105"/>
+      <c r="E76" s="106"/>
+      <c r="F76" s="106"/>
+      <c r="G76" s="105"/>
+      <c r="H76" s="105"/>
+      <c r="I76" s="107"/>
+      <c r="J76" s="108"/>
+      <c r="K76" s="13"/>
+      <c r="L76" s="13"/>
+      <c r="M76" s="13"/>
+      <c r="N76" s="13"/>
+      <c r="O76" s="13"/>
+      <c r="P76" s="13"/>
+      <c r="Q76" s="13"/>
+      <c r="R76" s="13"/>
+      <c r="S76" s="13"/>
+      <c r="T76" s="13"/>
+      <c r="U76" s="13"/>
+      <c r="V76" s="13"/>
+      <c r="W76" s="13"/>
+      <c r="X76" s="13"/>
+      <c r="Y76" s="13"/>
+      <c r="Z76" s="13"/>
+      <c r="AA76" s="13"/>
+      <c r="AB76" s="13"/>
+      <c r="AC76" s="13"/>
+      <c r="AD76" s="13"/>
+      <c r="AE76" s="13"/>
+      <c r="AF76" s="13"/>
+      <c r="AG76" s="13"/>
+      <c r="AH76" s="13"/>
+      <c r="AI76" s="13"/>
+      <c r="AJ76" s="13"/>
+      <c r="AK76" s="13"/>
+      <c r="AL76" s="13"/>
+      <c r="AM76" s="13"/>
+      <c r="AN76" s="13"/>
+      <c r="AO76" s="13"/>
+      <c r="AP76" s="13"/>
+      <c r="AQ76" s="13"/>
+      <c r="AR76" s="13"/>
+      <c r="AS76" s="13"/>
+      <c r="AT76" s="13"/>
+      <c r="AU76" s="13"/>
+      <c r="AV76" s="13"/>
+      <c r="AW76" s="13"/>
+      <c r="AX76" s="13"/>
+      <c r="AY76" s="13"/>
+      <c r="AZ76" s="13"/>
+      <c r="BA76" s="13"/>
+      <c r="BB76" s="13"/>
+      <c r="BC76" s="13"/>
+      <c r="BD76" s="13"/>
+      <c r="BE76" s="13"/>
+      <c r="BF76" s="13"/>
+      <c r="BG76" s="13"/>
+      <c r="BH76" s="13"/>
+      <c r="BI76" s="13"/>
+      <c r="BJ76" s="13"/>
+      <c r="BK76" s="13"/>
+      <c r="BL76" s="13"/>
+      <c r="BM76" s="13"/>
+      <c r="BN76" s="13"/>
+    </row>
+    <row r="77" spans="1:66" s="23" customFormat="1" ht="18" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="87" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+        <v>1</v>
+      </c>
+      <c r="B77" s="98" t="s">
+        <v>2</v>
+      </c>
+      <c r="C77" s="9"/>
+      <c r="D77" s="15"/>
+      <c r="E77" s="79"/>
+      <c r="F77" s="80"/>
+      <c r="G77" s="16"/>
+      <c r="H77" s="17"/>
+      <c r="I77" s="100"/>
+      <c r="J77" s="90"/>
+      <c r="K77" s="13"/>
+      <c r="L77" s="13"/>
+      <c r="M77" s="13"/>
+      <c r="N77" s="13"/>
+      <c r="O77" s="13"/>
+      <c r="P77" s="13"/>
+      <c r="Q77" s="13"/>
+      <c r="R77" s="13"/>
+      <c r="S77" s="13"/>
+      <c r="T77" s="13"/>
+      <c r="U77" s="13"/>
+      <c r="V77" s="13"/>
+      <c r="W77" s="13"/>
+      <c r="X77" s="13"/>
+      <c r="Y77" s="13"/>
+      <c r="Z77" s="13"/>
+      <c r="AA77" s="13"/>
+      <c r="AB77" s="13"/>
+      <c r="AC77" s="13"/>
+      <c r="AD77" s="13"/>
+      <c r="AE77" s="13"/>
+      <c r="AF77" s="13"/>
+      <c r="AG77" s="13"/>
+      <c r="AH77" s="13"/>
+      <c r="AI77" s="13"/>
+      <c r="AJ77" s="13"/>
+      <c r="AK77" s="13"/>
+      <c r="AL77" s="13"/>
+      <c r="AM77" s="13"/>
+      <c r="AN77" s="13"/>
+      <c r="AO77" s="13"/>
+      <c r="AP77" s="13"/>
+      <c r="AQ77" s="13"/>
+      <c r="AR77" s="13"/>
+      <c r="AS77" s="13"/>
+      <c r="AT77" s="13"/>
+      <c r="AU77" s="13"/>
+      <c r="AV77" s="13"/>
+      <c r="AW77" s="13"/>
+      <c r="AX77" s="13"/>
+      <c r="AY77" s="13"/>
+      <c r="AZ77" s="13"/>
+      <c r="BA77" s="13"/>
+      <c r="BB77" s="13"/>
+      <c r="BC77" s="13"/>
+      <c r="BD77" s="13"/>
+      <c r="BE77" s="13"/>
+      <c r="BF77" s="13"/>
+      <c r="BG77" s="13"/>
+      <c r="BH77" s="13"/>
+      <c r="BI77" s="13"/>
+      <c r="BJ77" s="13"/>
+      <c r="BK77" s="13"/>
+      <c r="BL77" s="13"/>
+      <c r="BM77" s="13"/>
+      <c r="BN77" s="13"/>
+    </row>
+    <row r="78" spans="1:66" s="23" customFormat="1" ht="18" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="86" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>1.1</v>
+      </c>
+      <c r="B78" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C78" s="11"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="82"/>
+      <c r="F78" s="78" t="str">
+        <f>IF(ISBLANK(E78)," - ",IF(G78=0,E78,E78+G78-1))</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G78" s="33"/>
+      <c r="H78" s="34">
+        <v>0</v>
+      </c>
+      <c r="I78" s="99">
+        <f>IF(OR(F78=0,E78=0),0,NETWORKDAYS(E78,F78))</f>
+        <v>0</v>
+      </c>
+      <c r="J78" s="89"/>
+      <c r="K78" s="13"/>
+      <c r="L78" s="13"/>
+      <c r="M78" s="13"/>
+      <c r="N78" s="13"/>
+      <c r="O78" s="13"/>
+      <c r="P78" s="13"/>
+      <c r="Q78" s="13"/>
+      <c r="R78" s="13"/>
+      <c r="S78" s="13"/>
+      <c r="T78" s="13"/>
+      <c r="U78" s="13"/>
+      <c r="V78" s="13"/>
+      <c r="W78" s="13"/>
+      <c r="X78" s="13"/>
+      <c r="Y78" s="13"/>
+      <c r="Z78" s="13"/>
+      <c r="AA78" s="13"/>
+      <c r="AB78" s="13"/>
+      <c r="AC78" s="13"/>
+      <c r="AD78" s="13"/>
+      <c r="AE78" s="13"/>
+      <c r="AF78" s="13"/>
+      <c r="AG78" s="13"/>
+      <c r="AH78" s="13"/>
+      <c r="AI78" s="13"/>
+      <c r="AJ78" s="13"/>
+      <c r="AK78" s="13"/>
+      <c r="AL78" s="13"/>
+      <c r="AM78" s="13"/>
+      <c r="AN78" s="13"/>
+      <c r="AO78" s="13"/>
+      <c r="AP78" s="13"/>
+      <c r="AQ78" s="13"/>
+      <c r="AR78" s="13"/>
+      <c r="AS78" s="13"/>
+      <c r="AT78" s="13"/>
+      <c r="AU78" s="13"/>
+      <c r="AV78" s="13"/>
+      <c r="AW78" s="13"/>
+      <c r="AX78" s="13"/>
+      <c r="AY78" s="13"/>
+      <c r="AZ78" s="13"/>
+      <c r="BA78" s="13"/>
+      <c r="BB78" s="13"/>
+      <c r="BC78" s="13"/>
+      <c r="BD78" s="13"/>
+      <c r="BE78" s="13"/>
+      <c r="BF78" s="13"/>
+      <c r="BG78" s="13"/>
+      <c r="BH78" s="13"/>
+      <c r="BI78" s="13"/>
+      <c r="BJ78" s="13"/>
+      <c r="BK78" s="13"/>
+      <c r="BL78" s="13"/>
+      <c r="BM78" s="13"/>
+      <c r="BN78" s="13"/>
+    </row>
+    <row r="79" spans="1:66" s="23" customFormat="1" ht="37.799999999999997" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="86" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>1.1.1</v>
+      </c>
+      <c r="B79" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C79" s="11"/>
+      <c r="D79" s="12"/>
+      <c r="E79" s="82"/>
+      <c r="F79" s="78" t="str">
+        <f t="shared" ref="F79:F80" si="16">IF(ISBLANK(E79)," - ",IF(G79=0,E79,E79+G79-1))</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G79" s="33"/>
+      <c r="H79" s="34">
+        <v>0</v>
+      </c>
+      <c r="I79" s="99">
+        <f t="shared" ref="I79:I80" si="17">IF(OR(F79=0,E79=0),0,NETWORKDAYS(E79,F79))</f>
+        <v>0</v>
+      </c>
+      <c r="J79" s="89"/>
+      <c r="K79" s="13"/>
+      <c r="L79" s="13"/>
+      <c r="M79" s="13"/>
+      <c r="N79" s="13"/>
+      <c r="O79" s="13"/>
+      <c r="P79" s="13"/>
+      <c r="Q79" s="13"/>
+      <c r="R79" s="13"/>
+      <c r="S79" s="13"/>
+      <c r="T79" s="13"/>
+      <c r="U79" s="13"/>
+      <c r="V79" s="13"/>
+      <c r="W79" s="13"/>
+      <c r="X79" s="13"/>
+      <c r="Y79" s="13"/>
+      <c r="Z79" s="13"/>
+      <c r="AA79" s="13"/>
+      <c r="AB79" s="13"/>
+      <c r="AC79" s="13"/>
+      <c r="AD79" s="13"/>
+      <c r="AE79" s="13"/>
+      <c r="AF79" s="13"/>
+      <c r="AG79" s="13"/>
+      <c r="AH79" s="13"/>
+      <c r="AI79" s="13"/>
+      <c r="AJ79" s="13"/>
+      <c r="AK79" s="13"/>
+      <c r="AL79" s="13"/>
+      <c r="AM79" s="13"/>
+      <c r="AN79" s="13"/>
+      <c r="AO79" s="13"/>
+      <c r="AP79" s="13"/>
+      <c r="AQ79" s="13"/>
+      <c r="AR79" s="13"/>
+      <c r="AS79" s="13"/>
+      <c r="AT79" s="13"/>
+      <c r="AU79" s="13"/>
+      <c r="AV79" s="13"/>
+      <c r="AW79" s="13"/>
+      <c r="AX79" s="13"/>
+      <c r="AY79" s="13"/>
+      <c r="AZ79" s="13"/>
+      <c r="BA79" s="13"/>
+      <c r="BB79" s="13"/>
+      <c r="BC79" s="13"/>
+      <c r="BD79" s="13"/>
+      <c r="BE79" s="13"/>
+      <c r="BF79" s="13"/>
+      <c r="BG79" s="13"/>
+      <c r="BH79" s="13"/>
+      <c r="BI79" s="13"/>
+      <c r="BJ79" s="13"/>
+      <c r="BK79" s="13"/>
+      <c r="BL79" s="13"/>
+      <c r="BM79" s="13"/>
+      <c r="BN79" s="13"/>
+    </row>
+    <row r="80" spans="1:66" s="23" customFormat="1" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="86" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
+        <v>1.1.1.1</v>
+      </c>
+      <c r="B80" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C80" s="11"/>
+      <c r="D80" s="12"/>
+      <c r="E80" s="82"/>
+      <c r="F80" s="78" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G80" s="33"/>
+      <c r="H80" s="34">
+        <v>0</v>
+      </c>
+      <c r="I80" s="99">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J80" s="89"/>
+      <c r="K80" s="13"/>
+      <c r="L80" s="13"/>
+      <c r="M80" s="13"/>
+      <c r="N80" s="13"/>
+      <c r="O80" s="13"/>
+      <c r="P80" s="13"/>
+      <c r="Q80" s="13"/>
+      <c r="R80" s="13"/>
+      <c r="S80" s="13"/>
+      <c r="T80" s="13"/>
+      <c r="U80" s="13"/>
+      <c r="V80" s="13"/>
+      <c r="W80" s="13"/>
+      <c r="X80" s="13"/>
+      <c r="Y80" s="13"/>
+      <c r="Z80" s="13"/>
+      <c r="AA80" s="13"/>
+      <c r="AB80" s="13"/>
+      <c r="AC80" s="13"/>
+      <c r="AD80" s="13"/>
+      <c r="AE80" s="13"/>
+      <c r="AF80" s="13"/>
+      <c r="AG80" s="13"/>
+      <c r="AH80" s="13"/>
+      <c r="AI80" s="13"/>
+      <c r="AJ80" s="13"/>
+      <c r="AK80" s="13"/>
+      <c r="AL80" s="13"/>
+      <c r="AM80" s="13"/>
+      <c r="AN80" s="13"/>
+      <c r="AO80" s="13"/>
+      <c r="AP80" s="13"/>
+      <c r="AQ80" s="13"/>
+      <c r="AR80" s="13"/>
+      <c r="AS80" s="13"/>
+      <c r="AT80" s="13"/>
+      <c r="AU80" s="13"/>
+      <c r="AV80" s="13"/>
+      <c r="AW80" s="13"/>
+      <c r="AX80" s="13"/>
+      <c r="AY80" s="13"/>
+      <c r="AZ80" s="13"/>
+      <c r="BA80" s="13"/>
+      <c r="BB80" s="13"/>
+      <c r="BC80" s="13"/>
+      <c r="BD80" s="13"/>
+      <c r="BE80" s="13"/>
+      <c r="BF80" s="13"/>
+      <c r="BG80" s="13"/>
+      <c r="BH80" s="13"/>
+      <c r="BI80" s="13"/>
+      <c r="BJ80" s="13"/>
+      <c r="BK80" s="13"/>
+      <c r="BL80" s="13"/>
+      <c r="BM80" s="13"/>
+      <c r="BN80" s="13"/>
+    </row>
+    <row r="81" spans="1:66" s="28" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="25"/>
+      <c r="B81" s="26"/>
+      <c r="C81" s="26"/>
+      <c r="D81" s="27"/>
+      <c r="E81" s="26"/>
+      <c r="F81" s="26"/>
+      <c r="G81" s="26"/>
+      <c r="H81" s="26"/>
+      <c r="I81" s="26"/>
+      <c r="J81" s="26"/>
+      <c r="K81" s="26"/>
+      <c r="L81" s="26"/>
+      <c r="M81" s="26"/>
+      <c r="N81" s="26"/>
+      <c r="O81" s="26"/>
+      <c r="P81" s="26"/>
+      <c r="Q81" s="26"/>
+      <c r="R81" s="26"/>
+      <c r="S81" s="26"/>
+      <c r="T81" s="26"/>
+      <c r="U81" s="26"/>
+      <c r="V81" s="26"/>
+      <c r="W81" s="26"/>
+      <c r="X81" s="26"/>
+      <c r="Y81" s="26"/>
+      <c r="Z81" s="26"/>
+      <c r="AA81" s="26"/>
+      <c r="AB81" s="26"/>
+      <c r="AC81" s="26"/>
+      <c r="AD81" s="26"/>
+      <c r="AE81" s="26"/>
+      <c r="AF81" s="26"/>
+      <c r="AG81" s="26"/>
+      <c r="AH81" s="26"/>
+      <c r="AI81" s="26"/>
+      <c r="AJ81" s="26"/>
+      <c r="AK81" s="26"/>
+      <c r="AL81" s="26"/>
+      <c r="AM81" s="26"/>
+      <c r="AN81" s="26"/>
+      <c r="AO81" s="26"/>
+      <c r="AP81" s="26"/>
+      <c r="AQ81" s="26"/>
+      <c r="AR81" s="26"/>
+      <c r="AS81" s="26"/>
+      <c r="AT81" s="26"/>
+      <c r="AU81" s="26"/>
+      <c r="AV81" s="26"/>
+      <c r="AW81" s="26"/>
+      <c r="AX81" s="26"/>
+      <c r="AY81" s="26"/>
+      <c r="AZ81" s="26"/>
+      <c r="BA81" s="26"/>
+      <c r="BB81" s="26"/>
+      <c r="BC81" s="26"/>
+      <c r="BD81" s="26"/>
+      <c r="BE81" s="26"/>
+      <c r="BF81" s="26"/>
+      <c r="BG81" s="26"/>
+      <c r="BH81" s="26"/>
+      <c r="BI81" s="26"/>
+      <c r="BJ81" s="26"/>
+      <c r="BK81" s="26"/>
+      <c r="BL81" s="26"/>
+      <c r="BM81" s="26"/>
+      <c r="BN81" s="26"/>
+    </row>
+    <row r="82" spans="1:66" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" spans="1:66" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="18">
+    <mergeCell ref="BH4:BN4"/>
+    <mergeCell ref="BH5:BN5"/>
+    <mergeCell ref="AM5:AS5"/>
+    <mergeCell ref="AT4:AZ4"/>
+    <mergeCell ref="AT5:AZ5"/>
+    <mergeCell ref="AM4:AS4"/>
+    <mergeCell ref="BA4:BG4"/>
+    <mergeCell ref="BA5:BG5"/>
     <mergeCell ref="AF4:AL4"/>
     <mergeCell ref="AF5:AL5"/>
     <mergeCell ref="R4:X4"/>
@@ -8125,17 +9908,9 @@
     <mergeCell ref="K5:Q5"/>
     <mergeCell ref="Y4:AE4"/>
     <mergeCell ref="Y5:AE5"/>
-    <mergeCell ref="BH4:BN4"/>
-    <mergeCell ref="BH5:BN5"/>
-    <mergeCell ref="AM5:AS5"/>
-    <mergeCell ref="AT4:AZ4"/>
-    <mergeCell ref="AT5:AZ5"/>
-    <mergeCell ref="AM4:AS4"/>
-    <mergeCell ref="BA4:BG4"/>
-    <mergeCell ref="BA5:BG5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="H54:H58 H8:H52">
+  <conditionalFormatting sqref="H76:H80 H8:H74">
     <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8150,20 +9925,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:BM7">
-    <cfRule type="expression" dxfId="6" priority="46">
+    <cfRule type="expression" dxfId="4" priority="46">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:BN58">
-    <cfRule type="expression" dxfId="2" priority="49">
+  <conditionalFormatting sqref="K8:BN44 K46:BN80 L45:BN45">
+    <cfRule type="expression" dxfId="3" priority="49">
       <formula>AND($E8&lt;=K$6,ROUNDDOWN(($F8-$E8+1)*$H8,0)+$E8-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="50">
+    <cfRule type="expression" dxfId="2" priority="50">
       <formula>AND(NOT(ISBLANK($E8)),$E8&lt;=K$6,$F8&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:BN58">
-    <cfRule type="expression" dxfId="0" priority="3">
+  <conditionalFormatting sqref="K6:BN44 K46:BN80 L45:BN45">
+    <cfRule type="expression" dxfId="1" priority="3">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I45">
+    <cfRule type="expression" dxfId="0" priority="56">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8177,7 +9957,7 @@
   <pageSetup scale="61" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="A51:B52 B53:B54 E57:E58 E51:I55 I46:I49 H45" unlockedFormula="1"/>
+    <ignoredError sqref="A74:B74 B75:B76 E79:E80 E74:I77 H45 H59" unlockedFormula="1"/>
     <ignoredError sqref="A45 A34 A21 A18 A24:A25 A26 A29 A32 A39" formula="1"/>
     <ignoredError sqref="H9" formulaRange="1"/>
   </ignoredErrors>
@@ -8227,7 +10007,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H54:H58 H8:H52</xm:sqref>
+          <xm:sqref>H76:H80 H8:H74</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
